--- a/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.195490837914317</v>
+        <v>1.044339935877783</v>
       </c>
       <c r="D3">
+        <v>0.955210689349141</v>
+      </c>
+      <c r="E3">
         <v>1.044339935877783</v>
-      </c>
-      <c r="E3">
-        <v>0.955210689349141</v>
       </c>
       <c r="F3">
         <v>1.195490837914317</v>
       </c>
       <c r="G3">
+        <v>0.925541312696619</v>
+      </c>
+      <c r="H3">
         <v>0.9837716326017237</v>
       </c>
-      <c r="H3">
-        <v>0.925541312696619</v>
-      </c>
       <c r="I3">
-        <v>0.9619606352372048</v>
+        <v>1.195490837914317</v>
       </c>
       <c r="J3">
-        <v>1.044339935877783</v>
+        <v>0.9619606352372044</v>
       </c>
       <c r="K3">
         <v>1.195490837914317</v>
@@ -644,13 +656,13 @@
         <v>0.955210689349141</v>
       </c>
       <c r="M3">
-        <v>0.999775312613462</v>
+        <v>0.9997753126134619</v>
       </c>
       <c r="N3">
-        <v>0.999775312613462</v>
+        <v>0.9997753126134619</v>
       </c>
       <c r="O3">
-        <v>0.9750306459745143</v>
+        <v>0.9750306459745142</v>
       </c>
       <c r="P3">
         <v>1.06501382104708</v>
@@ -676,43 +688,43 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.541790846071244</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="D4">
-        <v>0.733943185270602</v>
+        <v>0.7766450933924975</v>
       </c>
       <c r="E4">
-        <v>0.7766450933924975</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="F4">
-        <v>1.541790846071244</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="G4">
+        <v>0.8206173093207475</v>
+      </c>
+      <c r="H4">
         <v>0.9689627888128046</v>
       </c>
-      <c r="H4">
-        <v>0.8206173093207476</v>
-      </c>
       <c r="I4">
-        <v>0.8735476757343283</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="J4">
-        <v>0.733943185270602</v>
+        <v>0.8735476757343285</v>
       </c>
       <c r="K4">
-        <v>1.541790846071244</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="L4">
         <v>0.7766450933924975</v>
       </c>
       <c r="M4">
-        <v>0.7552941393315498</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="N4">
-        <v>0.7552941393315498</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="O4">
-        <v>0.777068529327949</v>
+        <v>0.7770685293279489</v>
       </c>
       <c r="P4">
         <v>1.017459708244781</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.962273870585717</v>
+        <v>0.05555108493494915</v>
       </c>
       <c r="D5">
+        <v>0.9826027997012169</v>
+      </c>
+      <c r="E5">
         <v>0.05555108493494915</v>
-      </c>
-      <c r="E5">
-        <v>0.9826027997012169</v>
       </c>
       <c r="F5">
         <v>1.962273870585717</v>
       </c>
       <c r="G5">
+        <v>1.112002544241577</v>
+      </c>
+      <c r="H5">
         <v>0.1278515646066429</v>
       </c>
-      <c r="H5">
-        <v>1.112002544241577</v>
-      </c>
       <c r="I5">
+        <v>1.962273870585717</v>
+      </c>
+      <c r="J5">
         <v>0.626530264894224</v>
-      </c>
-      <c r="J5">
-        <v>0.05555108493494915</v>
       </c>
       <c r="K5">
         <v>1.962273870585717</v>
@@ -789,7 +801,7 @@
         <v>1.2406754064519</v>
       </c>
       <c r="T5">
-        <v>0.811135354827388</v>
+        <v>0.8111353548273877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.393214268381328</v>
+        <v>2.296459495969617</v>
       </c>
       <c r="D6">
+        <v>0.2112257965121173</v>
+      </c>
+      <c r="E6">
         <v>2.296459495969617</v>
       </c>
-      <c r="E6">
-        <v>0.2112257965121173</v>
-      </c>
       <c r="F6">
-        <v>4.393214268381328</v>
+        <v>4.393214268381327</v>
       </c>
       <c r="G6">
+        <v>0.03956283120654348</v>
+      </c>
+      <c r="H6">
         <v>0.2108814377297772</v>
       </c>
-      <c r="H6">
-        <v>0.03956283120654348</v>
-      </c>
       <c r="I6">
-        <v>0.5254621596127299</v>
+        <v>4.393214268381327</v>
       </c>
       <c r="J6">
-        <v>2.296459495969617</v>
+        <v>0.5254621596127298</v>
       </c>
       <c r="K6">
-        <v>4.393214268381328</v>
+        <v>4.393214268381327</v>
       </c>
       <c r="L6">
         <v>0.2112257965121173</v>
@@ -839,16 +851,16 @@
         <v>0.8490827078960929</v>
       </c>
       <c r="P6">
-        <v>2.300299853621021</v>
+        <v>2.30029985362102</v>
       </c>
       <c r="Q6">
-        <v>2.300299853621021</v>
+        <v>2.30029985362102</v>
       </c>
       <c r="R6">
-        <v>2.823528457311098</v>
+        <v>2.823528457311097</v>
       </c>
       <c r="S6">
-        <v>2.823528457311098</v>
+        <v>2.823528457311097</v>
       </c>
       <c r="T6">
         <v>1.279467664902019</v>
@@ -862,55 +874,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.071434889727407</v>
+        <v>1.010284289871649</v>
       </c>
       <c r="D7">
-        <v>1.010284289871647</v>
+        <v>1.001820610558246</v>
       </c>
       <c r="E7">
-        <v>1.001820610558245</v>
+        <v>1.010284289871649</v>
       </c>
       <c r="F7">
         <v>1.071434889727407</v>
       </c>
       <c r="G7">
+        <v>0.9603901839904794</v>
+      </c>
+      <c r="H7">
         <v>1.027880071193997</v>
       </c>
-      <c r="H7">
-        <v>0.9603901839904817</v>
-      </c>
       <c r="I7">
-        <v>0.9873271913479803</v>
+        <v>1.071434889727407</v>
       </c>
       <c r="J7">
-        <v>1.010284289871647</v>
+        <v>0.9873271913479796</v>
       </c>
       <c r="K7">
         <v>1.071434889727407</v>
       </c>
       <c r="L7">
-        <v>1.001820610558245</v>
+        <v>1.001820610558246</v>
       </c>
       <c r="M7">
-        <v>1.006052450214946</v>
+        <v>1.006052450214947</v>
       </c>
       <c r="N7">
-        <v>1.006052450214946</v>
+        <v>1.006052450214947</v>
       </c>
       <c r="O7">
         <v>0.9908316948067913</v>
       </c>
       <c r="P7">
-        <v>1.0278465967191</v>
+        <v>1.027846596719101</v>
       </c>
       <c r="Q7">
-        <v>1.0278465967191</v>
+        <v>1.027846596719101</v>
       </c>
       <c r="R7">
-        <v>1.038743669971176</v>
+        <v>1.038743669971177</v>
       </c>
       <c r="S7">
-        <v>1.038743669971176</v>
+        <v>1.038743669971177</v>
       </c>
       <c r="T7">
         <v>1.00985620611496</v>
@@ -924,49 +936,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.116252887230896</v>
+        <v>0.9797876353623959</v>
       </c>
       <c r="D8">
-        <v>0.9797876353623968</v>
+        <v>0.9916515073023822</v>
       </c>
       <c r="E8">
-        <v>0.9916515073023833</v>
+        <v>0.9797876353623959</v>
       </c>
       <c r="F8">
         <v>1.116252887230896</v>
       </c>
       <c r="G8">
-        <v>1.02197665004721</v>
+        <v>0.9635938613934993</v>
       </c>
       <c r="H8">
-        <v>0.9635938613934985</v>
+        <v>1.02197665004722</v>
       </c>
       <c r="I8">
-        <v>0.9860269321182278</v>
+        <v>1.116252887230896</v>
       </c>
       <c r="J8">
-        <v>0.9797876353623968</v>
+        <v>0.9860269321182269</v>
       </c>
       <c r="K8">
         <v>1.116252887230896</v>
       </c>
       <c r="L8">
-        <v>0.9916515073023833</v>
+        <v>0.9916515073023822</v>
       </c>
       <c r="M8">
-        <v>0.9857195713323901</v>
+        <v>0.985719571332389</v>
       </c>
       <c r="N8">
-        <v>0.9857195713323901</v>
+        <v>0.985719571332389</v>
       </c>
       <c r="O8">
-        <v>0.9783443346860929</v>
+        <v>0.9783443346860924</v>
       </c>
       <c r="P8">
-        <v>1.029230676631892</v>
+        <v>1.029230676631891</v>
       </c>
       <c r="Q8">
-        <v>1.029230676631892</v>
+        <v>1.029230676631891</v>
       </c>
       <c r="R8">
         <v>1.050986229281643</v>
@@ -975,7 +987,7 @@
         <v>1.050986229281643</v>
       </c>
       <c r="T8">
-        <v>1.009881578909102</v>
+        <v>1.009881578909103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.372970627937032</v>
+        <v>0.9391677996117509</v>
       </c>
       <c r="D9">
+        <v>1.085614807236425</v>
+      </c>
+      <c r="E9">
         <v>0.9391677996117509</v>
-      </c>
-      <c r="E9">
-        <v>1.085614807236425</v>
       </c>
       <c r="F9">
         <v>1.372970627937032</v>
       </c>
       <c r="G9">
+        <v>0.9305890109229851</v>
+      </c>
+      <c r="H9">
         <v>1.015586021961063</v>
       </c>
-      <c r="H9">
-        <v>0.9305890109229851</v>
-      </c>
       <c r="I9">
-        <v>0.960471322291459</v>
+        <v>1.372970627937032</v>
       </c>
       <c r="J9">
-        <v>0.9391677996117509</v>
+        <v>0.9604713222914593</v>
       </c>
       <c r="K9">
         <v>1.372970627937032</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.395567756190374</v>
+        <v>0.961685156161463</v>
       </c>
       <c r="D10">
+        <v>1.049645499617224</v>
+      </c>
+      <c r="E10">
         <v>0.961685156161463</v>
-      </c>
-      <c r="E10">
-        <v>1.049645499617224</v>
       </c>
       <c r="F10">
         <v>1.395567756190374</v>
       </c>
       <c r="G10">
+        <v>0.8421502722659545</v>
+      </c>
+      <c r="H10">
         <v>1.121562489256123</v>
       </c>
-      <c r="H10">
-        <v>0.8421502722659545</v>
-      </c>
       <c r="I10">
+        <v>1.395567756190374</v>
+      </c>
+      <c r="J10">
         <v>1.027048558949295</v>
-      </c>
-      <c r="J10">
-        <v>0.961685156161463</v>
       </c>
       <c r="K10">
         <v>1.395567756190374</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.536490337193099</v>
+        <v>1.480301314783621</v>
       </c>
       <c r="D11">
-        <v>1.480301314783622</v>
+        <v>1.09029895811227</v>
       </c>
       <c r="E11">
-        <v>1.09029895811227</v>
+        <v>1.480301314783621</v>
       </c>
       <c r="F11">
         <v>2.536490337193099</v>
       </c>
       <c r="G11">
+        <v>1.270426160046834</v>
+      </c>
+      <c r="H11">
         <v>0.9204487261761448</v>
       </c>
-      <c r="H11">
-        <v>1.270426160046835</v>
-      </c>
       <c r="I11">
-        <v>0.7265650020706058</v>
+        <v>2.536490337193099</v>
       </c>
       <c r="J11">
-        <v>1.480301314783622</v>
+        <v>0.7265650020706061</v>
       </c>
       <c r="K11">
         <v>2.536490337193099</v>
@@ -1149,7 +1161,7 @@
         <v>1.280342144314242</v>
       </c>
       <c r="P11">
-        <v>1.702363536696331</v>
+        <v>1.70236353669633</v>
       </c>
       <c r="Q11">
         <v>1.70236353669633</v>
@@ -1172,55 +1184,55 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3015964858162223</v>
+        <v>0.001214817681315028</v>
       </c>
       <c r="D12">
-        <v>0.001214817681315023</v>
+        <v>1.123557152391315</v>
       </c>
       <c r="E12">
-        <v>1.123557152391312</v>
+        <v>0.001214817681315028</v>
       </c>
       <c r="F12">
         <v>0.3015964858162223</v>
       </c>
       <c r="G12">
-        <v>0.002872278369960733</v>
+        <v>2.050607645032628</v>
       </c>
       <c r="H12">
-        <v>2.050607645032628</v>
+        <v>0.002872278369960734</v>
       </c>
       <c r="I12">
-        <v>2.312062175003156</v>
+        <v>0.3015964858162223</v>
       </c>
       <c r="J12">
-        <v>0.001214817681315023</v>
+        <v>2.312062175003153</v>
       </c>
       <c r="K12">
         <v>0.3015964858162223</v>
       </c>
       <c r="L12">
-        <v>1.123557152391312</v>
+        <v>1.123557152391315</v>
       </c>
       <c r="M12">
-        <v>0.5623859850363137</v>
+        <v>0.5623859850363149</v>
       </c>
       <c r="N12">
-        <v>0.5623859850363137</v>
+        <v>0.5623859850363149</v>
       </c>
       <c r="O12">
         <v>1.058459871701752</v>
       </c>
       <c r="P12">
-        <v>0.4754561519629499</v>
+        <v>0.4754561519629507</v>
       </c>
       <c r="Q12">
-        <v>0.4754561519629499</v>
+        <v>0.4754561519629507</v>
       </c>
       <c r="R12">
-        <v>0.431991235426268</v>
+        <v>0.4319912354262686</v>
       </c>
       <c r="S12">
-        <v>0.431991235426268</v>
+        <v>0.4319912354262686</v>
       </c>
       <c r="T12">
         <v>0.9653184257157656</v>
@@ -1234,58 +1246,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4066822807472747</v>
+        <v>4.775620040547367</v>
       </c>
       <c r="D13">
-        <v>4.775620040547365</v>
+        <v>0.3136805992314787</v>
       </c>
       <c r="E13">
-        <v>0.3136805992314787</v>
+        <v>4.775620040547367</v>
       </c>
       <c r="F13">
-        <v>0.4066822807472747</v>
+        <v>0.4066822807472751</v>
       </c>
       <c r="G13">
-        <v>1.585107506038628</v>
+        <v>0.2960677502347535</v>
       </c>
       <c r="H13">
-        <v>0.2960677502347536</v>
+        <v>1.585107506038629</v>
       </c>
       <c r="I13">
-        <v>0.4977431786562394</v>
+        <v>0.4066822807472751</v>
       </c>
       <c r="J13">
-        <v>4.775620040547365</v>
+        <v>0.4977431786562403</v>
       </c>
       <c r="K13">
-        <v>0.4066822807472747</v>
+        <v>0.4066822807472751</v>
       </c>
       <c r="L13">
         <v>0.3136805992314787</v>
       </c>
       <c r="M13">
-        <v>2.544650319889421</v>
+        <v>2.544650319889423</v>
       </c>
       <c r="N13">
-        <v>2.544650319889421</v>
+        <v>2.544650319889423</v>
       </c>
       <c r="O13">
-        <v>1.795122796671199</v>
+        <v>1.7951227966712</v>
       </c>
       <c r="P13">
-        <v>1.831994306842039</v>
+        <v>1.83199430684204</v>
       </c>
       <c r="Q13">
-        <v>1.831994306842039</v>
+        <v>1.83199430684204</v>
       </c>
       <c r="R13">
-        <v>1.475666300318348</v>
+        <v>1.475666300318349</v>
       </c>
       <c r="S13">
-        <v>1.475666300318348</v>
+        <v>1.475666300318349</v>
       </c>
       <c r="T13">
-        <v>1.312483559242623</v>
+        <v>1.312483559242624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,49 +1308,49 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.458858903566747</v>
+        <v>4.068226629054021</v>
       </c>
       <c r="D14">
-        <v>4.068226629054019</v>
+        <v>0.003295046003179265</v>
       </c>
       <c r="E14">
-        <v>0.003295046003179267</v>
+        <v>4.068226629054021</v>
       </c>
       <c r="F14">
-        <v>2.458858903566747</v>
+        <v>2.458858903566748</v>
       </c>
       <c r="G14">
-        <v>0.00161495399095469</v>
+        <v>2.391910056070606</v>
       </c>
       <c r="H14">
-        <v>2.391910056070607</v>
+        <v>0.001614953990954686</v>
       </c>
       <c r="I14">
+        <v>2.458858903566748</v>
+      </c>
+      <c r="J14">
         <v>1.827543285215588</v>
       </c>
-      <c r="J14">
-        <v>4.068226629054019</v>
-      </c>
       <c r="K14">
-        <v>2.458858903566747</v>
+        <v>2.458858903566748</v>
       </c>
       <c r="L14">
-        <v>0.003295046003179267</v>
+        <v>0.003295046003179265</v>
       </c>
       <c r="M14">
-        <v>2.035760837528599</v>
+        <v>2.0357608375286</v>
       </c>
       <c r="N14">
-        <v>2.035760837528599</v>
+        <v>2.0357608375286</v>
       </c>
       <c r="O14">
-        <v>2.154477243709268</v>
+        <v>2.154477243709269</v>
       </c>
       <c r="P14">
-        <v>2.176793526207982</v>
+        <v>2.176793526207983</v>
       </c>
       <c r="Q14">
-        <v>2.176793526207982</v>
+        <v>2.176793526207983</v>
       </c>
       <c r="R14">
         <v>2.247309870547674</v>
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.001299449148443354</v>
+        <v>-0.002805162182525607</v>
       </c>
       <c r="D15">
-        <v>-0.002805162182525606</v>
+        <v>1.084848418353441</v>
       </c>
       <c r="E15">
-        <v>1.084848418353441</v>
+        <v>-0.002805162182525607</v>
       </c>
       <c r="F15">
-        <v>0.001299449148443354</v>
+        <v>0.001299449148443353</v>
       </c>
       <c r="G15">
+        <v>2.009429656241364</v>
+      </c>
+      <c r="H15">
         <v>2.028399283513613</v>
       </c>
-      <c r="H15">
-        <v>2.009429656241364</v>
-      </c>
       <c r="I15">
-        <v>0.7074621696031548</v>
+        <v>0.001299449148443353</v>
       </c>
       <c r="J15">
-        <v>-0.002805162182525606</v>
+        <v>0.7074621696031547</v>
       </c>
       <c r="K15">
-        <v>0.001299449148443354</v>
+        <v>0.001299449148443353</v>
       </c>
       <c r="L15">
         <v>1.084848418353441</v>
@@ -1409,7 +1421,7 @@
         <v>0.2711605386169506</v>
       </c>
       <c r="T15">
-        <v>0.9714389691129152</v>
+        <v>0.9714389691129149</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.023633829925897</v>
+        <v>0.1990834881721869</v>
       </c>
       <c r="D16">
-        <v>1.00630882115116</v>
+        <v>0.3603543867680373</v>
       </c>
       <c r="E16">
-        <v>0.9982362745432987</v>
+        <v>0.1990834881721869</v>
       </c>
       <c r="F16">
-        <v>1.023633829925897</v>
+        <v>3.085031496172858</v>
       </c>
       <c r="G16">
-        <v>1.0329941643493</v>
+        <v>0.1970725563988577</v>
       </c>
       <c r="H16">
-        <v>0.9649615010097174</v>
+        <v>0.343839289181916</v>
       </c>
       <c r="I16">
-        <v>0.9858809946172469</v>
+        <v>3.085031496172858</v>
       </c>
       <c r="J16">
-        <v>1.00630882115116</v>
+        <v>0.5377790186091649</v>
       </c>
       <c r="K16">
-        <v>1.023633829925897</v>
+        <v>3.085031496172858</v>
       </c>
       <c r="L16">
-        <v>0.9982362745432987</v>
+        <v>0.3603543867680373</v>
       </c>
       <c r="M16">
-        <v>1.002272547847229</v>
+        <v>0.2797189374701121</v>
       </c>
       <c r="N16">
-        <v>1.002272547847229</v>
+        <v>0.2797189374701121</v>
       </c>
       <c r="O16">
-        <v>0.9898355322347254</v>
+        <v>0.252170143779694</v>
       </c>
       <c r="P16">
-        <v>1.009392975206785</v>
+        <v>1.214823123704361</v>
       </c>
       <c r="Q16">
-        <v>1.009392975206785</v>
+        <v>1.214823123704361</v>
       </c>
       <c r="R16">
-        <v>1.012953188886563</v>
+        <v>1.682375216821485</v>
       </c>
       <c r="S16">
-        <v>1.012953188886563</v>
+        <v>1.682375216821485</v>
       </c>
       <c r="T16">
-        <v>1.002002597599437</v>
+        <v>0.7871933725505036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.123990509764879</v>
+        <v>0.3965783983113434</v>
       </c>
       <c r="D17">
-        <v>1.01941691864693</v>
+        <v>0.6155671475066192</v>
       </c>
       <c r="E17">
-        <v>1.015786721213073</v>
+        <v>0.3965783983113434</v>
       </c>
       <c r="F17">
-        <v>1.123990509764879</v>
+        <v>2.404249551685781</v>
       </c>
       <c r="G17">
-        <v>1.057297444502341</v>
+        <v>0.3950353603256873</v>
       </c>
       <c r="H17">
-        <v>0.9427738294905205</v>
+        <v>0.677797731977277</v>
       </c>
       <c r="I17">
-        <v>0.9839700539437772</v>
+        <v>2.404249551685781</v>
       </c>
       <c r="J17">
-        <v>1.01941691864693</v>
+        <v>0.6835354823926618</v>
       </c>
       <c r="K17">
-        <v>1.123990509764879</v>
+        <v>2.404249551685781</v>
       </c>
       <c r="L17">
-        <v>1.015786721213073</v>
+        <v>0.6155671475066192</v>
       </c>
       <c r="M17">
-        <v>1.017601819930001</v>
+        <v>0.5060727729089813</v>
       </c>
       <c r="N17">
-        <v>1.017601819930001</v>
+        <v>0.5060727729089813</v>
       </c>
       <c r="O17">
-        <v>0.9926591564501743</v>
+        <v>0.4690603020478833</v>
       </c>
       <c r="P17">
-        <v>1.053064716541627</v>
+        <v>1.138798365834581</v>
       </c>
       <c r="Q17">
-        <v>1.053064716541627</v>
+        <v>1.138798365834581</v>
       </c>
       <c r="R17">
-        <v>1.07079616484744</v>
+        <v>1.455161162297381</v>
       </c>
       <c r="S17">
-        <v>1.07079616484744</v>
+        <v>1.455161162297381</v>
       </c>
       <c r="T17">
-        <v>1.023872579593587</v>
+        <v>0.8621272786998949</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.307419741174119</v>
+        <v>0.6386837873337143</v>
       </c>
       <c r="D18">
-        <v>0.8056008462519523</v>
+        <v>1.131787106571982</v>
       </c>
       <c r="E18">
-        <v>0.8524189214238507</v>
+        <v>0.6386837873337143</v>
       </c>
       <c r="F18">
-        <v>1.307419741174119</v>
+        <v>1.431132804840537</v>
       </c>
       <c r="G18">
-        <v>1.42832804121978</v>
+        <v>0.6933201743495682</v>
       </c>
       <c r="H18">
-        <v>0.925668972406732</v>
+        <v>1.255021143857258</v>
       </c>
       <c r="I18">
-        <v>0.9957995130369652</v>
+        <v>1.431132804840537</v>
       </c>
       <c r="J18">
-        <v>0.8056008462519523</v>
+        <v>1.090853044256087</v>
       </c>
       <c r="K18">
-        <v>1.307419741174119</v>
+        <v>1.431132804840537</v>
       </c>
       <c r="L18">
-        <v>0.8524189214238507</v>
+        <v>1.131787106571982</v>
       </c>
       <c r="M18">
-        <v>0.8290098838379014</v>
+        <v>0.8852354469528479</v>
       </c>
       <c r="N18">
-        <v>0.8290098838379014</v>
+        <v>0.8852354469528479</v>
       </c>
       <c r="O18">
-        <v>0.8612295800275116</v>
+        <v>0.8212636894184214</v>
       </c>
       <c r="P18">
-        <v>0.988479836283307</v>
+        <v>1.067201232915411</v>
       </c>
       <c r="Q18">
-        <v>0.9884798362833073</v>
+        <v>1.067201232915411</v>
       </c>
       <c r="R18">
-        <v>1.06821481250601</v>
+        <v>1.158184125896693</v>
       </c>
       <c r="S18">
-        <v>1.06821481250601</v>
+        <v>1.158184125896693</v>
       </c>
       <c r="T18">
-        <v>1.052539339252233</v>
+        <v>1.040133010201524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9033072960605749</v>
+      </c>
+      <c r="D19">
+        <v>1.312058675256658</v>
+      </c>
+      <c r="E19">
+        <v>0.9033072960605749</v>
+      </c>
+      <c r="F19">
+        <v>1.289987821550236</v>
+      </c>
+      <c r="G19">
+        <v>0.6519544890098999</v>
+      </c>
+      <c r="H19">
+        <v>1.221370051021029</v>
+      </c>
+      <c r="I19">
+        <v>1.289987821550236</v>
+      </c>
+      <c r="J19">
+        <v>0.6889427600574</v>
+      </c>
+      <c r="K19">
+        <v>1.289987821550236</v>
+      </c>
+      <c r="L19">
+        <v>1.312058675256658</v>
+      </c>
+      <c r="M19">
+        <v>1.107682985658616</v>
+      </c>
+      <c r="N19">
+        <v>1.107682985658616</v>
+      </c>
+      <c r="O19">
+        <v>0.9557734867757109</v>
+      </c>
+      <c r="P19">
+        <v>1.168451264289156</v>
+      </c>
+      <c r="Q19">
+        <v>1.168451264289156</v>
+      </c>
+      <c r="R19">
+        <v>1.198835403604426</v>
+      </c>
+      <c r="S19">
+        <v>1.198835403604426</v>
+      </c>
+      <c r="T19">
+        <v>1.0112701821593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.006308821151159</v>
+      </c>
+      <c r="D20">
+        <v>0.9982362745432977</v>
+      </c>
+      <c r="E20">
+        <v>1.006308821151159</v>
+      </c>
+      <c r="F20">
+        <v>1.023633829925896</v>
+      </c>
+      <c r="G20">
+        <v>0.9649615010097166</v>
+      </c>
+      <c r="H20">
+        <v>1.032994164349297</v>
+      </c>
+      <c r="I20">
+        <v>1.023633829925896</v>
+      </c>
+      <c r="J20">
+        <v>0.9858809946172459</v>
+      </c>
+      <c r="K20">
+        <v>1.023633829925896</v>
+      </c>
+      <c r="L20">
+        <v>0.9982362745432977</v>
+      </c>
+      <c r="M20">
+        <v>1.002272547847229</v>
+      </c>
+      <c r="N20">
+        <v>1.002272547847229</v>
+      </c>
+      <c r="O20">
+        <v>0.9898355322347245</v>
+      </c>
+      <c r="P20">
+        <v>1.009392975206785</v>
+      </c>
+      <c r="Q20">
+        <v>1.009392975206785</v>
+      </c>
+      <c r="R20">
+        <v>1.012953188886563</v>
+      </c>
+      <c r="S20">
+        <v>1.012953188886563</v>
+      </c>
+      <c r="T20">
+        <v>1.002002597599436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.01941691864693</v>
+      </c>
+      <c r="D21">
+        <v>1.015786721213073</v>
+      </c>
+      <c r="E21">
+        <v>1.01941691864693</v>
+      </c>
+      <c r="F21">
+        <v>1.123990509764879</v>
+      </c>
+      <c r="G21">
+        <v>0.9427738294905212</v>
+      </c>
+      <c r="H21">
+        <v>1.05729744450234</v>
+      </c>
+      <c r="I21">
+        <v>1.123990509764879</v>
+      </c>
+      <c r="J21">
+        <v>0.9839700539437775</v>
+      </c>
+      <c r="K21">
+        <v>1.123990509764879</v>
+      </c>
+      <c r="L21">
+        <v>1.015786721213073</v>
+      </c>
+      <c r="M21">
+        <v>1.017601819930001</v>
+      </c>
+      <c r="N21">
+        <v>1.017601819930001</v>
+      </c>
+      <c r="O21">
+        <v>0.9926591564501747</v>
+      </c>
+      <c r="P21">
+        <v>1.053064716541627</v>
+      </c>
+      <c r="Q21">
+        <v>1.053064716541627</v>
+      </c>
+      <c r="R21">
+        <v>1.07079616484744</v>
+      </c>
+      <c r="S21">
+        <v>1.07079616484744</v>
+      </c>
+      <c r="T21">
+        <v>1.023872579593587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8056008462519536</v>
+      </c>
+      <c r="D22">
+        <v>0.8524189214238492</v>
+      </c>
+      <c r="E22">
+        <v>0.8056008462519536</v>
+      </c>
+      <c r="F22">
+        <v>1.307419741174124</v>
+      </c>
+      <c r="G22">
+        <v>0.9256689724067307</v>
+      </c>
+      <c r="H22">
+        <v>1.428328041219783</v>
+      </c>
+      <c r="I22">
+        <v>1.307419741174124</v>
+      </c>
+      <c r="J22">
+        <v>0.9957995130369646</v>
+      </c>
+      <c r="K22">
+        <v>1.307419741174124</v>
+      </c>
+      <c r="L22">
+        <v>0.8524189214238492</v>
+      </c>
+      <c r="M22">
+        <v>0.8290098838379014</v>
+      </c>
+      <c r="N22">
+        <v>0.8290098838379014</v>
+      </c>
+      <c r="O22">
+        <v>0.8612295800275112</v>
+      </c>
+      <c r="P22">
+        <v>0.9884798362833088</v>
+      </c>
+      <c r="Q22">
+        <v>0.9884798362833088</v>
+      </c>
+      <c r="R22">
+        <v>1.068214812506012</v>
+      </c>
+      <c r="S22">
+        <v>1.068214812506012</v>
+      </c>
+      <c r="T22">
+        <v>1.052539339252234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.06169644836268144</v>
+      </c>
+      <c r="D23">
+        <v>1.836565574558004</v>
+      </c>
+      <c r="E23">
+        <v>0.06169644836268144</v>
+      </c>
+      <c r="F23">
         <v>1.5847068524227</v>
       </c>
-      <c r="D19">
-        <v>0.06169644836268144</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.268379127087099</v>
+      </c>
+      <c r="H23">
+        <v>0.8462819967269253</v>
+      </c>
+      <c r="I23">
+        <v>1.5847068524227</v>
+      </c>
+      <c r="J23">
+        <v>0.8016851739240414</v>
+      </c>
+      <c r="K23">
+        <v>1.5847068524227</v>
+      </c>
+      <c r="L23">
         <v>1.836565574558004</v>
       </c>
-      <c r="F19">
-        <v>1.5847068524227</v>
-      </c>
-      <c r="G19">
-        <v>0.8462819967269253</v>
-      </c>
-      <c r="H19">
-        <v>1.268379127087099</v>
-      </c>
-      <c r="I19">
-        <v>0.8016851739240414</v>
-      </c>
-      <c r="J19">
-        <v>0.06169644836268144</v>
-      </c>
-      <c r="K19">
-        <v>1.5847068524227</v>
-      </c>
-      <c r="L19">
-        <v>1.836565574558004</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9491310114603428</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9491310114603428</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.055547050002595</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.160989625114462</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.160989625114462</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.266918931941521</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.266918931941521</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.066552528846908</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.044339935877783</v>
+        <v>0.7444249987458623</v>
       </c>
       <c r="D3">
-        <v>0.955210689349141</v>
+        <v>1.070003726847156</v>
       </c>
       <c r="E3">
-        <v>1.044339935877783</v>
+        <v>0.7444249987458623</v>
       </c>
       <c r="F3">
-        <v>1.195490837914317</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="G3">
-        <v>0.925541312696619</v>
+        <v>0.7439715252950169</v>
       </c>
       <c r="H3">
-        <v>0.9837716326017237</v>
+        <v>1.264822229759062</v>
       </c>
       <c r="I3">
-        <v>1.195490837914317</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="J3">
-        <v>0.9619606352372044</v>
+        <v>0.9389416985560169</v>
       </c>
       <c r="K3">
-        <v>1.195490837914317</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="L3">
-        <v>0.955210689349141</v>
+        <v>1.070003726847156</v>
       </c>
       <c r="M3">
-        <v>0.9997753126134619</v>
+        <v>0.907214362796509</v>
       </c>
       <c r="N3">
-        <v>0.9997753126134619</v>
+        <v>0.907214362796509</v>
       </c>
       <c r="O3">
-        <v>0.9750306459745142</v>
+        <v>0.852800083629345</v>
       </c>
       <c r="P3">
-        <v>1.06501382104708</v>
+        <v>0.9548197119431237</v>
       </c>
       <c r="Q3">
-        <v>1.06501382104708</v>
+        <v>0.9548197119431237</v>
       </c>
       <c r="R3">
-        <v>1.097633075263889</v>
+        <v>0.978622386516431</v>
       </c>
       <c r="S3">
-        <v>1.097633075263889</v>
+        <v>0.978622386516431</v>
       </c>
       <c r="T3">
-        <v>1.011052507279465</v>
+        <v>0.9686990982399112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7339431852706018</v>
+        <v>0.7703427753923558</v>
       </c>
       <c r="D4">
-        <v>0.7766450933924975</v>
+        <v>1.1013227061458</v>
       </c>
       <c r="E4">
-        <v>0.7339431852706018</v>
+        <v>0.7703427753923558</v>
       </c>
       <c r="F4">
-        <v>1.541790846071245</v>
+        <v>0.9763034594946455</v>
       </c>
       <c r="G4">
-        <v>0.8206173093207475</v>
+        <v>0.7698070641119772</v>
       </c>
       <c r="H4">
-        <v>0.9689627888128046</v>
+        <v>1.309292907877572</v>
       </c>
       <c r="I4">
-        <v>1.541790846071245</v>
+        <v>0.9763034594946455</v>
       </c>
       <c r="J4">
-        <v>0.8735476757343285</v>
+        <v>0.9595101839132244</v>
       </c>
       <c r="K4">
-        <v>1.541790846071245</v>
+        <v>0.9763034594946455</v>
       </c>
       <c r="L4">
-        <v>0.7766450933924975</v>
+        <v>1.1013227061458</v>
       </c>
       <c r="M4">
-        <v>0.7552941393315497</v>
+        <v>0.9358327407690781</v>
       </c>
       <c r="N4">
-        <v>0.7552941393315497</v>
+        <v>0.9358327407690781</v>
       </c>
       <c r="O4">
-        <v>0.7770685293279489</v>
+        <v>0.8804908485500444</v>
       </c>
       <c r="P4">
-        <v>1.017459708244781</v>
+        <v>0.9493229803442672</v>
       </c>
       <c r="Q4">
-        <v>1.017459708244781</v>
+        <v>0.9493229803442672</v>
       </c>
       <c r="R4">
-        <v>1.148542492701397</v>
+        <v>0.9560681001318618</v>
       </c>
       <c r="S4">
-        <v>1.148542492701397</v>
+        <v>0.9560681001318618</v>
       </c>
       <c r="T4">
-        <v>0.9525844831003707</v>
+        <v>0.9810965161559292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.05555108493494915</v>
+        <v>0.570076744953573</v>
       </c>
       <c r="D5">
-        <v>0.9826027997012169</v>
+        <v>0.9259085599391387</v>
       </c>
       <c r="E5">
-        <v>0.05555108493494915</v>
+        <v>0.570076744953573</v>
       </c>
       <c r="F5">
-        <v>1.962273870585717</v>
+        <v>2.310701826512179</v>
       </c>
       <c r="G5">
-        <v>1.112002544241577</v>
+        <v>0.5681182309186414</v>
       </c>
       <c r="H5">
-        <v>0.1278515646066429</v>
+        <v>1.48214103079477</v>
       </c>
       <c r="I5">
-        <v>1.962273870585717</v>
+        <v>2.310701826512179</v>
       </c>
       <c r="J5">
-        <v>0.626530264894224</v>
+        <v>0.8464503098236654</v>
       </c>
       <c r="K5">
-        <v>1.962273870585717</v>
+        <v>2.310701826512179</v>
       </c>
       <c r="L5">
-        <v>0.9826027997012169</v>
+        <v>0.9259085599391387</v>
       </c>
       <c r="M5">
-        <v>0.519076942318083</v>
+        <v>0.7479926524463558</v>
       </c>
       <c r="N5">
-        <v>0.519076942318083</v>
+        <v>0.7479926524463558</v>
       </c>
       <c r="O5">
-        <v>0.7167188096259144</v>
+        <v>0.6880345119371176</v>
       </c>
       <c r="P5">
-        <v>1.000142585073961</v>
+        <v>1.268895710468297</v>
       </c>
       <c r="Q5">
-        <v>1.000142585073961</v>
+        <v>1.268895710468297</v>
       </c>
       <c r="R5">
-        <v>1.2406754064519</v>
+        <v>1.529347239479267</v>
       </c>
       <c r="S5">
-        <v>1.2406754064519</v>
+        <v>1.529347239479267</v>
       </c>
       <c r="T5">
-        <v>0.8111353548273877</v>
+        <v>1.117232783823661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.296459495969617</v>
+        <v>1.125829661031171</v>
       </c>
       <c r="D6">
-        <v>0.2112257965121173</v>
+        <v>0.6422246004188633</v>
       </c>
       <c r="E6">
-        <v>2.296459495969617</v>
+        <v>1.125829661031171</v>
       </c>
       <c r="F6">
-        <v>4.393214268381327</v>
+        <v>3.828156197723979</v>
       </c>
       <c r="G6">
-        <v>0.03956283120654348</v>
+        <v>0.9971305572756821</v>
       </c>
       <c r="H6">
-        <v>0.2108814377297772</v>
+        <v>0.4157191876979549</v>
       </c>
       <c r="I6">
-        <v>4.393214268381327</v>
+        <v>3.828156197723979</v>
       </c>
       <c r="J6">
-        <v>0.5254621596127298</v>
+        <v>0.7018226110617038</v>
       </c>
       <c r="K6">
-        <v>4.393214268381327</v>
+        <v>3.828156197723979</v>
       </c>
       <c r="L6">
-        <v>0.2112257965121173</v>
+        <v>0.6422246004188633</v>
       </c>
       <c r="M6">
-        <v>1.253842646240867</v>
+        <v>0.8840271307250169</v>
       </c>
       <c r="N6">
-        <v>1.253842646240867</v>
+        <v>0.8840271307250169</v>
       </c>
       <c r="O6">
-        <v>0.8490827078960929</v>
+        <v>0.9217282729085721</v>
       </c>
       <c r="P6">
-        <v>2.30029985362102</v>
+        <v>1.865403486391338</v>
       </c>
       <c r="Q6">
-        <v>2.30029985362102</v>
+        <v>1.865403486391338</v>
       </c>
       <c r="R6">
-        <v>2.823528457311097</v>
+        <v>2.356091664224498</v>
       </c>
       <c r="S6">
-        <v>2.823528457311097</v>
+        <v>2.356091664224498</v>
       </c>
       <c r="T6">
-        <v>1.279467664902019</v>
+        <v>1.285147135868226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.010284289871649</v>
+        <v>-0.001942242940389804</v>
       </c>
       <c r="D7">
-        <v>1.001820610558246</v>
+        <v>0.6667929728249923</v>
       </c>
       <c r="E7">
-        <v>1.010284289871649</v>
+        <v>-0.001942242940389804</v>
       </c>
       <c r="F7">
-        <v>1.071434889727407</v>
+        <v>4.326251723635298</v>
       </c>
       <c r="G7">
-        <v>0.9603901839904794</v>
+        <v>2.541740933041989E-05</v>
       </c>
       <c r="H7">
-        <v>1.027880071193997</v>
+        <v>0.001368819551705452</v>
       </c>
       <c r="I7">
-        <v>1.071434889727407</v>
+        <v>4.326251723635298</v>
       </c>
       <c r="J7">
-        <v>0.9873271913479796</v>
+        <v>0.9859984824191766</v>
       </c>
       <c r="K7">
-        <v>1.071434889727407</v>
+        <v>4.326251723635298</v>
       </c>
       <c r="L7">
-        <v>1.001820610558246</v>
+        <v>0.6667929728249923</v>
       </c>
       <c r="M7">
-        <v>1.006052450214947</v>
+        <v>0.3324253649423012</v>
       </c>
       <c r="N7">
-        <v>1.006052450214947</v>
+        <v>0.3324253649423012</v>
       </c>
       <c r="O7">
-        <v>0.9908316948067913</v>
+        <v>0.2216253824313109</v>
       </c>
       <c r="P7">
-        <v>1.027846596719101</v>
+        <v>1.663700817839967</v>
       </c>
       <c r="Q7">
-        <v>1.027846596719101</v>
+        <v>1.663700817839967</v>
       </c>
       <c r="R7">
-        <v>1.038743669971177</v>
+        <v>2.329338544288799</v>
       </c>
       <c r="S7">
-        <v>1.038743669971177</v>
+        <v>2.329338544288799</v>
       </c>
       <c r="T7">
-        <v>1.00985620611496</v>
+        <v>0.9964158621500188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9797876353623959</v>
+        <v>-0.001950943514471793</v>
       </c>
       <c r="D8">
-        <v>0.9916515073023822</v>
+        <v>0.6635205264451761</v>
       </c>
       <c r="E8">
-        <v>0.9797876353623959</v>
+        <v>-0.001950943514471793</v>
       </c>
       <c r="F8">
-        <v>1.116252887230896</v>
+        <v>4.526962868560696</v>
       </c>
       <c r="G8">
-        <v>0.9635938613934993</v>
+        <v>-7.363109466156052E-06</v>
       </c>
       <c r="H8">
-        <v>1.02197665004722</v>
+        <v>0.001308232617048411</v>
       </c>
       <c r="I8">
-        <v>1.116252887230896</v>
+        <v>4.526962868560696</v>
       </c>
       <c r="J8">
-        <v>0.9860269321182269</v>
+        <v>0.9813294467299163</v>
       </c>
       <c r="K8">
-        <v>1.116252887230896</v>
+        <v>4.526962868560696</v>
       </c>
       <c r="L8">
-        <v>0.9916515073023822</v>
+        <v>0.6635205264451761</v>
       </c>
       <c r="M8">
-        <v>0.985719571332389</v>
+        <v>0.3307847914653522</v>
       </c>
       <c r="N8">
-        <v>0.985719571332389</v>
+        <v>0.3307847914653522</v>
       </c>
       <c r="O8">
-        <v>0.9783443346860924</v>
+        <v>0.2205207399404127</v>
       </c>
       <c r="P8">
-        <v>1.029230676631891</v>
+        <v>1.7295108171638</v>
       </c>
       <c r="Q8">
-        <v>1.029230676631891</v>
+        <v>1.7295108171638</v>
       </c>
       <c r="R8">
-        <v>1.050986229281643</v>
+        <v>2.428873830013024</v>
       </c>
       <c r="S8">
-        <v>1.050986229281643</v>
+        <v>2.428873830013024</v>
       </c>
       <c r="T8">
-        <v>1.009881578909103</v>
+        <v>1.028527127954816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9391677996117509</v>
+        <v>-0.001965333516525284</v>
       </c>
       <c r="D9">
-        <v>1.085614807236425</v>
+        <v>0.6618130307781664</v>
       </c>
       <c r="E9">
-        <v>0.9391677996117509</v>
+        <v>-0.001965333516525284</v>
       </c>
       <c r="F9">
-        <v>1.372970627937032</v>
+        <v>4.54344595588762</v>
       </c>
       <c r="G9">
-        <v>0.9305890109229851</v>
+        <v>-3.212447171934462E-05</v>
       </c>
       <c r="H9">
-        <v>1.015586021961063</v>
+        <v>0.001136601811986255</v>
       </c>
       <c r="I9">
-        <v>1.372970627937032</v>
+        <v>4.54344595588762</v>
       </c>
       <c r="J9">
-        <v>0.9604713222914593</v>
+        <v>0.9794463405110583</v>
       </c>
       <c r="K9">
-        <v>1.372970627937032</v>
+        <v>4.54344595588762</v>
       </c>
       <c r="L9">
-        <v>1.085614807236425</v>
+        <v>0.6618130307781664</v>
       </c>
       <c r="M9">
-        <v>1.012391303424088</v>
+        <v>0.3299238486308206</v>
       </c>
       <c r="N9">
-        <v>1.012391303424088</v>
+        <v>0.3299238486308206</v>
       </c>
       <c r="O9">
-        <v>0.9851238725903869</v>
+        <v>0.2199385242633073</v>
       </c>
       <c r="P9">
-        <v>1.132584411595069</v>
+        <v>1.734431217716421</v>
       </c>
       <c r="Q9">
-        <v>1.132584411595069</v>
+        <v>1.73443121771642</v>
       </c>
       <c r="R9">
-        <v>1.19268096568056</v>
+        <v>2.43668490225922</v>
       </c>
       <c r="S9">
-        <v>1.19268096568056</v>
+        <v>2.43668490225922</v>
       </c>
       <c r="T9">
-        <v>1.050733264993452</v>
+        <v>1.030640745166764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.961685156161463</v>
+        <v>-0.001968826642606078</v>
       </c>
       <c r="D10">
-        <v>1.049645499617224</v>
+        <v>0.6533754092908034</v>
       </c>
       <c r="E10">
-        <v>0.961685156161463</v>
+        <v>-0.001968826642606078</v>
       </c>
       <c r="F10">
-        <v>1.395567756190374</v>
+        <v>5.580561682199413</v>
       </c>
       <c r="G10">
-        <v>0.8421502722659545</v>
+        <v>-9.102873906797611E-05</v>
       </c>
       <c r="H10">
-        <v>1.121562489256123</v>
+        <v>0.0008947205898170503</v>
       </c>
       <c r="I10">
-        <v>1.395567756190374</v>
+        <v>5.580561682199413</v>
       </c>
       <c r="J10">
-        <v>1.027048558949295</v>
+        <v>0.9675655287445145</v>
       </c>
       <c r="K10">
-        <v>1.395567756190374</v>
+        <v>5.580561682199413</v>
       </c>
       <c r="L10">
-        <v>1.049645499617224</v>
+        <v>0.6533754092908034</v>
       </c>
       <c r="M10">
-        <v>1.005665327889343</v>
+        <v>0.3257032913240986</v>
       </c>
       <c r="N10">
-        <v>1.005665327889343</v>
+        <v>0.3257032913240986</v>
       </c>
       <c r="O10">
-        <v>0.9511603093482138</v>
+        <v>0.2171051846363764</v>
       </c>
       <c r="P10">
-        <v>1.135632803989687</v>
+        <v>2.077322754949203</v>
       </c>
       <c r="Q10">
-        <v>1.135632803989687</v>
+        <v>2.077322754949204</v>
       </c>
       <c r="R10">
-        <v>1.200616542039859</v>
+        <v>2.953132486761756</v>
       </c>
       <c r="S10">
-        <v>1.200616542039859</v>
+        <v>2.953132486761756</v>
       </c>
       <c r="T10">
-        <v>1.066276622073406</v>
+        <v>1.200056247573812</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.480301314783621</v>
+        <v>0.9874950177581305</v>
       </c>
       <c r="D11">
-        <v>1.09029895811227</v>
+        <v>0.9497891013710018</v>
       </c>
       <c r="E11">
-        <v>1.480301314783621</v>
+        <v>0.9874950177581305</v>
       </c>
       <c r="F11">
-        <v>2.536490337193099</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="G11">
-        <v>1.270426160046834</v>
+        <v>0.9210405441788202</v>
       </c>
       <c r="H11">
-        <v>0.9204487261761448</v>
+        <v>1.006201098865553</v>
       </c>
       <c r="I11">
-        <v>2.536490337193099</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="J11">
-        <v>0.7265650020706061</v>
+        <v>0.9690388322409507</v>
       </c>
       <c r="K11">
-        <v>2.536490337193099</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="L11">
-        <v>1.09029895811227</v>
+        <v>0.9497891013710018</v>
       </c>
       <c r="M11">
-        <v>1.285300136447946</v>
+        <v>0.9686420595645662</v>
       </c>
       <c r="N11">
-        <v>1.285300136447946</v>
+        <v>0.9686420595645662</v>
       </c>
       <c r="O11">
-        <v>1.280342144314242</v>
+        <v>0.9527748877693175</v>
       </c>
       <c r="P11">
-        <v>1.70236353669633</v>
+        <v>1.027024039854326</v>
       </c>
       <c r="Q11">
-        <v>1.70236353669633</v>
+        <v>1.027024039854326</v>
       </c>
       <c r="R11">
-        <v>1.910895236820523</v>
+        <v>1.056215029999207</v>
       </c>
       <c r="S11">
-        <v>1.910895236820523</v>
+        <v>1.056215029999207</v>
       </c>
       <c r="T11">
-        <v>1.337421749730429</v>
+        <v>0.9962254324747173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.001214817681315028</v>
+        <v>0.9707515560767209</v>
       </c>
       <c r="D12">
-        <v>1.123557152391315</v>
+        <v>0.9775032442435674</v>
       </c>
       <c r="E12">
-        <v>0.001214817681315028</v>
+        <v>0.9707515560767209</v>
       </c>
       <c r="F12">
-        <v>0.3015964858162223</v>
+        <v>1.102238335081525</v>
       </c>
       <c r="G12">
-        <v>2.050607645032628</v>
+        <v>0.9409519077994782</v>
       </c>
       <c r="H12">
-        <v>0.002872278369960734</v>
+        <v>1.004601135093405</v>
       </c>
       <c r="I12">
-        <v>0.3015964858162223</v>
+        <v>1.102238335081525</v>
       </c>
       <c r="J12">
-        <v>2.312062175003153</v>
+        <v>0.9734725259287487</v>
       </c>
       <c r="K12">
-        <v>0.3015964858162223</v>
+        <v>1.102238335081525</v>
       </c>
       <c r="L12">
-        <v>1.123557152391315</v>
+        <v>0.9775032442435674</v>
       </c>
       <c r="M12">
-        <v>0.5623859850363149</v>
+        <v>0.9741274001601441</v>
       </c>
       <c r="N12">
-        <v>0.5623859850363149</v>
+        <v>0.9741274001601441</v>
       </c>
       <c r="O12">
-        <v>1.058459871701752</v>
+        <v>0.9630689027065888</v>
       </c>
       <c r="P12">
-        <v>0.4754561519629507</v>
+        <v>1.016831045133938</v>
       </c>
       <c r="Q12">
-        <v>0.4754561519629507</v>
+        <v>1.016831045133938</v>
       </c>
       <c r="R12">
-        <v>0.4319912354262686</v>
+        <v>1.038182867620834</v>
       </c>
       <c r="S12">
-        <v>0.4319912354262686</v>
+        <v>1.038182867620834</v>
       </c>
       <c r="T12">
-        <v>0.9653184257157656</v>
+        <v>0.9949197840372408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.775620040547367</v>
+        <v>1.262630090504562</v>
       </c>
       <c r="D13">
-        <v>0.3136805992314787</v>
+        <v>0.6981563319828199</v>
       </c>
       <c r="E13">
-        <v>4.775620040547367</v>
+        <v>1.262630090504562</v>
       </c>
       <c r="F13">
-        <v>0.4066822807472751</v>
+        <v>2.119863248704133</v>
       </c>
       <c r="G13">
-        <v>0.2960677502347535</v>
+        <v>0.8121312236698125</v>
       </c>
       <c r="H13">
-        <v>1.585107506038629</v>
+        <v>0.4247480135862421</v>
       </c>
       <c r="I13">
-        <v>0.4066822807472751</v>
+        <v>2.119863248704133</v>
       </c>
       <c r="J13">
-        <v>0.4977431786562403</v>
+        <v>0.7670498258426689</v>
       </c>
       <c r="K13">
-        <v>0.4066822807472751</v>
+        <v>2.119863248704133</v>
       </c>
       <c r="L13">
-        <v>0.3136805992314787</v>
+        <v>0.6981563319828199</v>
       </c>
       <c r="M13">
-        <v>2.544650319889423</v>
+        <v>0.9803932112436908</v>
       </c>
       <c r="N13">
-        <v>2.544650319889423</v>
+        <v>0.9803932112436908</v>
       </c>
       <c r="O13">
-        <v>1.7951227966712</v>
+        <v>0.9243058820523981</v>
       </c>
       <c r="P13">
-        <v>1.83199430684204</v>
+        <v>1.360216557063838</v>
       </c>
       <c r="Q13">
-        <v>1.83199430684204</v>
+        <v>1.360216557063838</v>
       </c>
       <c r="R13">
-        <v>1.475666300318349</v>
+        <v>1.550128229973912</v>
       </c>
       <c r="S13">
-        <v>1.475666300318349</v>
+        <v>1.550128229973912</v>
       </c>
       <c r="T13">
-        <v>1.312483559242624</v>
+        <v>1.01409645571504</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.068226629054021</v>
+        <v>2.329491984642527</v>
       </c>
       <c r="D14">
-        <v>0.003295046003179265</v>
+        <v>0.6871489403174053</v>
       </c>
       <c r="E14">
-        <v>4.068226629054021</v>
+        <v>2.329491984642527</v>
       </c>
       <c r="F14">
-        <v>2.458858903566748</v>
+        <v>2.571351383316668</v>
       </c>
       <c r="G14">
-        <v>2.391910056070606</v>
+        <v>1.234589949607911</v>
       </c>
       <c r="H14">
-        <v>0.001614953990954686</v>
+        <v>0.09032906568749736</v>
       </c>
       <c r="I14">
-        <v>2.458858903566748</v>
+        <v>2.571351383316668</v>
       </c>
       <c r="J14">
-        <v>1.827543285215588</v>
+        <v>0.529762004446933</v>
       </c>
       <c r="K14">
-        <v>2.458858903566748</v>
+        <v>2.571351383316668</v>
       </c>
       <c r="L14">
-        <v>0.003295046003179265</v>
+        <v>0.6871489403174053</v>
       </c>
       <c r="M14">
-        <v>2.0357608375286</v>
+        <v>1.508320462479966</v>
       </c>
       <c r="N14">
-        <v>2.0357608375286</v>
+        <v>1.508320462479966</v>
       </c>
       <c r="O14">
-        <v>2.154477243709269</v>
+        <v>1.417076958189281</v>
       </c>
       <c r="P14">
-        <v>2.176793526207983</v>
+        <v>1.862664102758867</v>
       </c>
       <c r="Q14">
-        <v>2.176793526207983</v>
+        <v>1.862664102758867</v>
       </c>
       <c r="R14">
-        <v>2.247309870547674</v>
+        <v>2.039835922898317</v>
       </c>
       <c r="S14">
-        <v>2.247309870547674</v>
+        <v>2.039835922898317</v>
       </c>
       <c r="T14">
-        <v>1.791908145650183</v>
+        <v>1.240445554669824</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.002805162182525607</v>
+        <v>1.044339935877783</v>
       </c>
       <c r="D15">
-        <v>1.084848418353441</v>
+        <v>0.955210689349141</v>
       </c>
       <c r="E15">
-        <v>-0.002805162182525607</v>
+        <v>1.044339935877783</v>
       </c>
       <c r="F15">
-        <v>0.001299449148443353</v>
+        <v>1.195490837914317</v>
       </c>
       <c r="G15">
-        <v>2.009429656241364</v>
+        <v>0.925541312696619</v>
       </c>
       <c r="H15">
-        <v>2.028399283513613</v>
+        <v>0.9837716326017237</v>
       </c>
       <c r="I15">
-        <v>0.001299449148443353</v>
+        <v>1.195490837914317</v>
       </c>
       <c r="J15">
-        <v>0.7074621696031547</v>
+        <v>0.9619606352372044</v>
       </c>
       <c r="K15">
-        <v>0.001299449148443353</v>
+        <v>1.195490837914317</v>
       </c>
       <c r="L15">
-        <v>1.084848418353441</v>
+        <v>0.955210689349141</v>
       </c>
       <c r="M15">
-        <v>0.5410216280854578</v>
+        <v>0.9997753126134619</v>
       </c>
       <c r="N15">
-        <v>0.5410216280854578</v>
+        <v>0.9997753126134619</v>
       </c>
       <c r="O15">
-        <v>1.030490970804093</v>
+        <v>0.9750306459745142</v>
       </c>
       <c r="P15">
-        <v>0.361114235106453</v>
+        <v>1.06501382104708</v>
       </c>
       <c r="Q15">
-        <v>0.361114235106453</v>
+        <v>1.06501382104708</v>
       </c>
       <c r="R15">
-        <v>0.2711605386169506</v>
+        <v>1.097633075263889</v>
       </c>
       <c r="S15">
-        <v>0.2711605386169506</v>
+        <v>1.097633075263889</v>
       </c>
       <c r="T15">
-        <v>0.9714389691129149</v>
+        <v>1.011052507279465</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1990834881721869</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="D16">
-        <v>0.3603543867680373</v>
+        <v>0.7766450933924975</v>
       </c>
       <c r="E16">
-        <v>0.1990834881721869</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="F16">
-        <v>3.085031496172858</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="G16">
-        <v>0.1970725563988577</v>
+        <v>0.8206173093207475</v>
       </c>
       <c r="H16">
-        <v>0.343839289181916</v>
+        <v>0.9689627888128046</v>
       </c>
       <c r="I16">
-        <v>3.085031496172858</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="J16">
-        <v>0.5377790186091649</v>
+        <v>0.8735476757343285</v>
       </c>
       <c r="K16">
-        <v>3.085031496172858</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="L16">
-        <v>0.3603543867680373</v>
+        <v>0.7766450933924975</v>
       </c>
       <c r="M16">
-        <v>0.2797189374701121</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="N16">
-        <v>0.2797189374701121</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="O16">
-        <v>0.252170143779694</v>
+        <v>0.7770685293279489</v>
       </c>
       <c r="P16">
-        <v>1.214823123704361</v>
+        <v>1.017459708244781</v>
       </c>
       <c r="Q16">
-        <v>1.214823123704361</v>
+        <v>1.017459708244781</v>
       </c>
       <c r="R16">
-        <v>1.682375216821485</v>
+        <v>1.148542492701397</v>
       </c>
       <c r="S16">
-        <v>1.682375216821485</v>
+        <v>1.148542492701397</v>
       </c>
       <c r="T16">
-        <v>0.7871933725505036</v>
+        <v>0.9525844831003707</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3965783983113434</v>
+        <v>0.05555108493494915</v>
       </c>
       <c r="D17">
-        <v>0.6155671475066192</v>
+        <v>0.9826027997012169</v>
       </c>
       <c r="E17">
-        <v>0.3965783983113434</v>
+        <v>0.05555108493494915</v>
       </c>
       <c r="F17">
-        <v>2.404249551685781</v>
+        <v>1.962273870585717</v>
       </c>
       <c r="G17">
-        <v>0.3950353603256873</v>
+        <v>1.112002544241577</v>
       </c>
       <c r="H17">
-        <v>0.677797731977277</v>
+        <v>0.1278515646066429</v>
       </c>
       <c r="I17">
-        <v>2.404249551685781</v>
+        <v>1.962273870585717</v>
       </c>
       <c r="J17">
-        <v>0.6835354823926618</v>
+        <v>0.626530264894224</v>
       </c>
       <c r="K17">
-        <v>2.404249551685781</v>
+        <v>1.962273870585717</v>
       </c>
       <c r="L17">
-        <v>0.6155671475066192</v>
+        <v>0.9826027997012169</v>
       </c>
       <c r="M17">
-        <v>0.5060727729089813</v>
+        <v>0.519076942318083</v>
       </c>
       <c r="N17">
-        <v>0.5060727729089813</v>
+        <v>0.519076942318083</v>
       </c>
       <c r="O17">
-        <v>0.4690603020478833</v>
+        <v>0.7167188096259144</v>
       </c>
       <c r="P17">
-        <v>1.138798365834581</v>
+        <v>1.000142585073961</v>
       </c>
       <c r="Q17">
-        <v>1.138798365834581</v>
+        <v>1.000142585073961</v>
       </c>
       <c r="R17">
-        <v>1.455161162297381</v>
+        <v>1.2406754064519</v>
       </c>
       <c r="S17">
-        <v>1.455161162297381</v>
+        <v>1.2406754064519</v>
       </c>
       <c r="T17">
-        <v>0.8621272786998949</v>
+        <v>0.8111353548273877</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6386837873337143</v>
+        <v>2.296459495969617</v>
       </c>
       <c r="D18">
-        <v>1.131787106571982</v>
+        <v>0.2112257965121173</v>
       </c>
       <c r="E18">
-        <v>0.6386837873337143</v>
+        <v>2.296459495969617</v>
       </c>
       <c r="F18">
-        <v>1.431132804840537</v>
+        <v>4.393214268381327</v>
       </c>
       <c r="G18">
-        <v>0.6933201743495682</v>
+        <v>0.03956283120654348</v>
       </c>
       <c r="H18">
-        <v>1.255021143857258</v>
+        <v>0.2108814377297772</v>
       </c>
       <c r="I18">
-        <v>1.431132804840537</v>
+        <v>4.393214268381327</v>
       </c>
       <c r="J18">
-        <v>1.090853044256087</v>
+        <v>0.5254621596127298</v>
       </c>
       <c r="K18">
-        <v>1.431132804840537</v>
+        <v>4.393214268381327</v>
       </c>
       <c r="L18">
-        <v>1.131787106571982</v>
+        <v>0.2112257965121173</v>
       </c>
       <c r="M18">
-        <v>0.8852354469528479</v>
+        <v>1.253842646240867</v>
       </c>
       <c r="N18">
-        <v>0.8852354469528479</v>
+        <v>1.253842646240867</v>
       </c>
       <c r="O18">
-        <v>0.8212636894184214</v>
+        <v>0.8490827078960929</v>
       </c>
       <c r="P18">
-        <v>1.067201232915411</v>
+        <v>2.30029985362102</v>
       </c>
       <c r="Q18">
-        <v>1.067201232915411</v>
+        <v>2.30029985362102</v>
       </c>
       <c r="R18">
-        <v>1.158184125896693</v>
+        <v>2.823528457311097</v>
       </c>
       <c r="S18">
-        <v>1.158184125896693</v>
+        <v>2.823528457311097</v>
       </c>
       <c r="T18">
-        <v>1.040133010201524</v>
+        <v>1.279467664902019</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9033072960605749</v>
+        <v>1.010284289871649</v>
       </c>
       <c r="D19">
-        <v>1.312058675256658</v>
+        <v>1.001820610558246</v>
       </c>
       <c r="E19">
-        <v>0.9033072960605749</v>
+        <v>1.010284289871649</v>
       </c>
       <c r="F19">
-        <v>1.289987821550236</v>
+        <v>1.071434889727407</v>
       </c>
       <c r="G19">
-        <v>0.6519544890098999</v>
+        <v>0.9603901839904794</v>
       </c>
       <c r="H19">
-        <v>1.221370051021029</v>
+        <v>1.027880071193997</v>
       </c>
       <c r="I19">
-        <v>1.289987821550236</v>
+        <v>1.071434889727407</v>
       </c>
       <c r="J19">
-        <v>0.6889427600574</v>
+        <v>0.9873271913479796</v>
       </c>
       <c r="K19">
-        <v>1.289987821550236</v>
+        <v>1.071434889727407</v>
       </c>
       <c r="L19">
-        <v>1.312058675256658</v>
+        <v>1.001820610558246</v>
       </c>
       <c r="M19">
-        <v>1.107682985658616</v>
+        <v>1.006052450214947</v>
       </c>
       <c r="N19">
-        <v>1.107682985658616</v>
+        <v>1.006052450214947</v>
       </c>
       <c r="O19">
-        <v>0.9557734867757109</v>
+        <v>0.9908316948067913</v>
       </c>
       <c r="P19">
-        <v>1.168451264289156</v>
+        <v>1.027846596719101</v>
       </c>
       <c r="Q19">
-        <v>1.168451264289156</v>
+        <v>1.027846596719101</v>
       </c>
       <c r="R19">
-        <v>1.198835403604426</v>
+        <v>1.038743669971177</v>
       </c>
       <c r="S19">
-        <v>1.198835403604426</v>
+        <v>1.038743669971177</v>
       </c>
       <c r="T19">
-        <v>1.0112701821593</v>
+        <v>1.00985620611496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.006308821151159</v>
+        <v>0.9797876353623959</v>
       </c>
       <c r="D20">
-        <v>0.9982362745432977</v>
+        <v>0.9916515073023822</v>
       </c>
       <c r="E20">
-        <v>1.006308821151159</v>
+        <v>0.9797876353623959</v>
       </c>
       <c r="F20">
-        <v>1.023633829925896</v>
+        <v>1.116252887230896</v>
       </c>
       <c r="G20">
-        <v>0.9649615010097166</v>
+        <v>0.9635938613934993</v>
       </c>
       <c r="H20">
-        <v>1.032994164349297</v>
+        <v>1.02197665004722</v>
       </c>
       <c r="I20">
-        <v>1.023633829925896</v>
+        <v>1.116252887230896</v>
       </c>
       <c r="J20">
-        <v>0.9858809946172459</v>
+        <v>0.9860269321182269</v>
       </c>
       <c r="K20">
-        <v>1.023633829925896</v>
+        <v>1.116252887230896</v>
       </c>
       <c r="L20">
-        <v>0.9982362745432977</v>
+        <v>0.9916515073023822</v>
       </c>
       <c r="M20">
-        <v>1.002272547847229</v>
+        <v>0.985719571332389</v>
       </c>
       <c r="N20">
-        <v>1.002272547847229</v>
+        <v>0.985719571332389</v>
       </c>
       <c r="O20">
-        <v>0.9898355322347245</v>
+        <v>0.9783443346860924</v>
       </c>
       <c r="P20">
-        <v>1.009392975206785</v>
+        <v>1.029230676631891</v>
       </c>
       <c r="Q20">
-        <v>1.009392975206785</v>
+        <v>1.029230676631891</v>
       </c>
       <c r="R20">
-        <v>1.012953188886563</v>
+        <v>1.050986229281643</v>
       </c>
       <c r="S20">
-        <v>1.012953188886563</v>
+        <v>1.050986229281643</v>
       </c>
       <c r="T20">
-        <v>1.002002597599436</v>
+        <v>1.009881578909103</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.01941691864693</v>
+        <v>0.9391677996117509</v>
       </c>
       <c r="D21">
-        <v>1.015786721213073</v>
+        <v>1.085614807236425</v>
       </c>
       <c r="E21">
-        <v>1.01941691864693</v>
+        <v>0.9391677996117509</v>
       </c>
       <c r="F21">
-        <v>1.123990509764879</v>
+        <v>1.372970627937032</v>
       </c>
       <c r="G21">
-        <v>0.9427738294905212</v>
+        <v>0.9305890109229851</v>
       </c>
       <c r="H21">
-        <v>1.05729744450234</v>
+        <v>1.015586021961063</v>
       </c>
       <c r="I21">
-        <v>1.123990509764879</v>
+        <v>1.372970627937032</v>
       </c>
       <c r="J21">
-        <v>0.9839700539437775</v>
+        <v>0.9604713222914593</v>
       </c>
       <c r="K21">
-        <v>1.123990509764879</v>
+        <v>1.372970627937032</v>
       </c>
       <c r="L21">
-        <v>1.015786721213073</v>
+        <v>1.085614807236425</v>
       </c>
       <c r="M21">
-        <v>1.017601819930001</v>
+        <v>1.012391303424088</v>
       </c>
       <c r="N21">
-        <v>1.017601819930001</v>
+        <v>1.012391303424088</v>
       </c>
       <c r="O21">
-        <v>0.9926591564501747</v>
+        <v>0.9851238725903869</v>
       </c>
       <c r="P21">
-        <v>1.053064716541627</v>
+        <v>1.132584411595069</v>
       </c>
       <c r="Q21">
-        <v>1.053064716541627</v>
+        <v>1.132584411595069</v>
       </c>
       <c r="R21">
-        <v>1.07079616484744</v>
+        <v>1.19268096568056</v>
       </c>
       <c r="S21">
-        <v>1.07079616484744</v>
+        <v>1.19268096568056</v>
       </c>
       <c r="T21">
-        <v>1.023872579593587</v>
+        <v>1.050733264993452</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8056008462519536</v>
+        <v>0.961685156161463</v>
       </c>
       <c r="D22">
-        <v>0.8524189214238492</v>
+        <v>1.049645499617224</v>
       </c>
       <c r="E22">
-        <v>0.8056008462519536</v>
+        <v>0.961685156161463</v>
       </c>
       <c r="F22">
-        <v>1.307419741174124</v>
+        <v>1.395567756190374</v>
       </c>
       <c r="G22">
-        <v>0.9256689724067307</v>
+        <v>0.8421502722659545</v>
       </c>
       <c r="H22">
-        <v>1.428328041219783</v>
+        <v>1.121562489256123</v>
       </c>
       <c r="I22">
-        <v>1.307419741174124</v>
+        <v>1.395567756190374</v>
       </c>
       <c r="J22">
-        <v>0.9957995130369646</v>
+        <v>1.027048558949295</v>
       </c>
       <c r="K22">
-        <v>1.307419741174124</v>
+        <v>1.395567756190374</v>
       </c>
       <c r="L22">
-        <v>0.8524189214238492</v>
+        <v>1.049645499617224</v>
       </c>
       <c r="M22">
-        <v>0.8290098838379014</v>
+        <v>1.005665327889343</v>
       </c>
       <c r="N22">
-        <v>0.8290098838379014</v>
+        <v>1.005665327889343</v>
       </c>
       <c r="O22">
-        <v>0.8612295800275112</v>
+        <v>0.9511603093482138</v>
       </c>
       <c r="P22">
-        <v>0.9884798362833088</v>
+        <v>1.135632803989687</v>
       </c>
       <c r="Q22">
-        <v>0.9884798362833088</v>
+        <v>1.135632803989687</v>
       </c>
       <c r="R22">
-        <v>1.068214812506012</v>
+        <v>1.200616542039859</v>
       </c>
       <c r="S22">
-        <v>1.068214812506012</v>
+        <v>1.200616542039859</v>
       </c>
       <c r="T22">
-        <v>1.052539339252234</v>
+        <v>1.066276622073406</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.480301314783621</v>
+      </c>
+      <c r="D23">
+        <v>1.09029895811227</v>
+      </c>
+      <c r="E23">
+        <v>1.480301314783621</v>
+      </c>
+      <c r="F23">
+        <v>2.536490337193099</v>
+      </c>
+      <c r="G23">
+        <v>1.270426160046834</v>
+      </c>
+      <c r="H23">
+        <v>0.9204487261761448</v>
+      </c>
+      <c r="I23">
+        <v>2.536490337193099</v>
+      </c>
+      <c r="J23">
+        <v>0.7265650020706061</v>
+      </c>
+      <c r="K23">
+        <v>2.536490337193099</v>
+      </c>
+      <c r="L23">
+        <v>1.09029895811227</v>
+      </c>
+      <c r="M23">
+        <v>1.285300136447946</v>
+      </c>
+      <c r="N23">
+        <v>1.285300136447946</v>
+      </c>
+      <c r="O23">
+        <v>1.280342144314242</v>
+      </c>
+      <c r="P23">
+        <v>1.70236353669633</v>
+      </c>
+      <c r="Q23">
+        <v>1.70236353669633</v>
+      </c>
+      <c r="R23">
+        <v>1.910895236820523</v>
+      </c>
+      <c r="S23">
+        <v>1.910895236820523</v>
+      </c>
+      <c r="T23">
+        <v>1.337421749730429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.001214817681315028</v>
+      </c>
+      <c r="D24">
+        <v>1.123557152391315</v>
+      </c>
+      <c r="E24">
+        <v>0.001214817681315028</v>
+      </c>
+      <c r="F24">
+        <v>0.3015964858162223</v>
+      </c>
+      <c r="G24">
+        <v>2.050607645032628</v>
+      </c>
+      <c r="H24">
+        <v>0.002872278369960734</v>
+      </c>
+      <c r="I24">
+        <v>0.3015964858162223</v>
+      </c>
+      <c r="J24">
+        <v>2.312062175003153</v>
+      </c>
+      <c r="K24">
+        <v>0.3015964858162223</v>
+      </c>
+      <c r="L24">
+        <v>1.123557152391315</v>
+      </c>
+      <c r="M24">
+        <v>0.5623859850363149</v>
+      </c>
+      <c r="N24">
+        <v>0.5623859850363149</v>
+      </c>
+      <c r="O24">
+        <v>1.058459871701752</v>
+      </c>
+      <c r="P24">
+        <v>0.4754561519629507</v>
+      </c>
+      <c r="Q24">
+        <v>0.4754561519629507</v>
+      </c>
+      <c r="R24">
+        <v>0.4319912354262686</v>
+      </c>
+      <c r="S24">
+        <v>0.4319912354262686</v>
+      </c>
+      <c r="T24">
+        <v>0.9653184257157656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>4.775620040547367</v>
+      </c>
+      <c r="D25">
+        <v>0.3136805992314787</v>
+      </c>
+      <c r="E25">
+        <v>4.775620040547367</v>
+      </c>
+      <c r="F25">
+        <v>0.4066822807472751</v>
+      </c>
+      <c r="G25">
+        <v>0.2960677502347535</v>
+      </c>
+      <c r="H25">
+        <v>1.585107506038629</v>
+      </c>
+      <c r="I25">
+        <v>0.4066822807472751</v>
+      </c>
+      <c r="J25">
+        <v>0.4977431786562403</v>
+      </c>
+      <c r="K25">
+        <v>0.4066822807472751</v>
+      </c>
+      <c r="L25">
+        <v>0.3136805992314787</v>
+      </c>
+      <c r="M25">
+        <v>2.544650319889423</v>
+      </c>
+      <c r="N25">
+        <v>2.544650319889423</v>
+      </c>
+      <c r="O25">
+        <v>1.7951227966712</v>
+      </c>
+      <c r="P25">
+        <v>1.83199430684204</v>
+      </c>
+      <c r="Q25">
+        <v>1.83199430684204</v>
+      </c>
+      <c r="R25">
+        <v>1.475666300318349</v>
+      </c>
+      <c r="S25">
+        <v>1.475666300318349</v>
+      </c>
+      <c r="T25">
+        <v>1.312483559242624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>4.068226629054021</v>
+      </c>
+      <c r="D26">
+        <v>0.003295046003179265</v>
+      </c>
+      <c r="E26">
+        <v>4.068226629054021</v>
+      </c>
+      <c r="F26">
+        <v>2.458858903566748</v>
+      </c>
+      <c r="G26">
+        <v>2.391910056070606</v>
+      </c>
+      <c r="H26">
+        <v>0.001614953990954686</v>
+      </c>
+      <c r="I26">
+        <v>2.458858903566748</v>
+      </c>
+      <c r="J26">
+        <v>1.827543285215588</v>
+      </c>
+      <c r="K26">
+        <v>2.458858903566748</v>
+      </c>
+      <c r="L26">
+        <v>0.003295046003179265</v>
+      </c>
+      <c r="M26">
+        <v>2.0357608375286</v>
+      </c>
+      <c r="N26">
+        <v>2.0357608375286</v>
+      </c>
+      <c r="O26">
+        <v>2.154477243709269</v>
+      </c>
+      <c r="P26">
+        <v>2.176793526207983</v>
+      </c>
+      <c r="Q26">
+        <v>2.176793526207983</v>
+      </c>
+      <c r="R26">
+        <v>2.247309870547674</v>
+      </c>
+      <c r="S26">
+        <v>2.247309870547674</v>
+      </c>
+      <c r="T26">
+        <v>1.791908145650183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.002805162182525607</v>
+      </c>
+      <c r="D27">
+        <v>1.084848418353441</v>
+      </c>
+      <c r="E27">
+        <v>-0.002805162182525607</v>
+      </c>
+      <c r="F27">
+        <v>0.001299449148443353</v>
+      </c>
+      <c r="G27">
+        <v>2.009429656241364</v>
+      </c>
+      <c r="H27">
+        <v>2.028399283513613</v>
+      </c>
+      <c r="I27">
+        <v>0.001299449148443353</v>
+      </c>
+      <c r="J27">
+        <v>0.7074621696031547</v>
+      </c>
+      <c r="K27">
+        <v>0.001299449148443353</v>
+      </c>
+      <c r="L27">
+        <v>1.084848418353441</v>
+      </c>
+      <c r="M27">
+        <v>0.5410216280854578</v>
+      </c>
+      <c r="N27">
+        <v>0.5410216280854578</v>
+      </c>
+      <c r="O27">
+        <v>1.030490970804093</v>
+      </c>
+      <c r="P27">
+        <v>0.361114235106453</v>
+      </c>
+      <c r="Q27">
+        <v>0.361114235106453</v>
+      </c>
+      <c r="R27">
+        <v>0.2711605386169506</v>
+      </c>
+      <c r="S27">
+        <v>0.2711605386169506</v>
+      </c>
+      <c r="T27">
+        <v>0.9714389691129149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.1990834881721869</v>
+      </c>
+      <c r="D28">
+        <v>0.3603543867680373</v>
+      </c>
+      <c r="E28">
+        <v>0.1990834881721869</v>
+      </c>
+      <c r="F28">
+        <v>3.085031496172858</v>
+      </c>
+      <c r="G28">
+        <v>0.1970725563988577</v>
+      </c>
+      <c r="H28">
+        <v>0.343839289181916</v>
+      </c>
+      <c r="I28">
+        <v>3.085031496172858</v>
+      </c>
+      <c r="J28">
+        <v>0.5377790186091649</v>
+      </c>
+      <c r="K28">
+        <v>3.085031496172858</v>
+      </c>
+      <c r="L28">
+        <v>0.3603543867680373</v>
+      </c>
+      <c r="M28">
+        <v>0.2797189374701121</v>
+      </c>
+      <c r="N28">
+        <v>0.2797189374701121</v>
+      </c>
+      <c r="O28">
+        <v>0.252170143779694</v>
+      </c>
+      <c r="P28">
+        <v>1.214823123704361</v>
+      </c>
+      <c r="Q28">
+        <v>1.214823123704361</v>
+      </c>
+      <c r="R28">
+        <v>1.682375216821485</v>
+      </c>
+      <c r="S28">
+        <v>1.682375216821485</v>
+      </c>
+      <c r="T28">
+        <v>0.7871933725505036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.3965783983113434</v>
+      </c>
+      <c r="D29">
+        <v>0.6155671475066192</v>
+      </c>
+      <c r="E29">
+        <v>0.3965783983113434</v>
+      </c>
+      <c r="F29">
+        <v>2.404249551685781</v>
+      </c>
+      <c r="G29">
+        <v>0.3950353603256873</v>
+      </c>
+      <c r="H29">
+        <v>0.677797731977277</v>
+      </c>
+      <c r="I29">
+        <v>2.404249551685781</v>
+      </c>
+      <c r="J29">
+        <v>0.6835354823926618</v>
+      </c>
+      <c r="K29">
+        <v>2.404249551685781</v>
+      </c>
+      <c r="L29">
+        <v>0.6155671475066192</v>
+      </c>
+      <c r="M29">
+        <v>0.5060727729089813</v>
+      </c>
+      <c r="N29">
+        <v>0.5060727729089813</v>
+      </c>
+      <c r="O29">
+        <v>0.4690603020478833</v>
+      </c>
+      <c r="P29">
+        <v>1.138798365834581</v>
+      </c>
+      <c r="Q29">
+        <v>1.138798365834581</v>
+      </c>
+      <c r="R29">
+        <v>1.455161162297381</v>
+      </c>
+      <c r="S29">
+        <v>1.455161162297381</v>
+      </c>
+      <c r="T29">
+        <v>0.8621272786998949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.6386837873337143</v>
+      </c>
+      <c r="D30">
+        <v>1.131787106571982</v>
+      </c>
+      <c r="E30">
+        <v>0.6386837873337143</v>
+      </c>
+      <c r="F30">
+        <v>1.431132804840537</v>
+      </c>
+      <c r="G30">
+        <v>0.6933201743495682</v>
+      </c>
+      <c r="H30">
+        <v>1.255021143857258</v>
+      </c>
+      <c r="I30">
+        <v>1.431132804840537</v>
+      </c>
+      <c r="J30">
+        <v>1.090853044256087</v>
+      </c>
+      <c r="K30">
+        <v>1.431132804840537</v>
+      </c>
+      <c r="L30">
+        <v>1.131787106571982</v>
+      </c>
+      <c r="M30">
+        <v>0.8852354469528479</v>
+      </c>
+      <c r="N30">
+        <v>0.8852354469528479</v>
+      </c>
+      <c r="O30">
+        <v>0.8212636894184214</v>
+      </c>
+      <c r="P30">
+        <v>1.067201232915411</v>
+      </c>
+      <c r="Q30">
+        <v>1.067201232915411</v>
+      </c>
+      <c r="R30">
+        <v>1.158184125896693</v>
+      </c>
+      <c r="S30">
+        <v>1.158184125896693</v>
+      </c>
+      <c r="T30">
+        <v>1.040133010201524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9033072960605749</v>
+      </c>
+      <c r="D31">
+        <v>1.312058675256658</v>
+      </c>
+      <c r="E31">
+        <v>0.9033072960605749</v>
+      </c>
+      <c r="F31">
+        <v>1.289987821550236</v>
+      </c>
+      <c r="G31">
+        <v>0.6519544890098999</v>
+      </c>
+      <c r="H31">
+        <v>1.221370051021029</v>
+      </c>
+      <c r="I31">
+        <v>1.289987821550236</v>
+      </c>
+      <c r="J31">
+        <v>0.6889427600574</v>
+      </c>
+      <c r="K31">
+        <v>1.289987821550236</v>
+      </c>
+      <c r="L31">
+        <v>1.312058675256658</v>
+      </c>
+      <c r="M31">
+        <v>1.107682985658616</v>
+      </c>
+      <c r="N31">
+        <v>1.107682985658616</v>
+      </c>
+      <c r="O31">
+        <v>0.9557734867757109</v>
+      </c>
+      <c r="P31">
+        <v>1.168451264289156</v>
+      </c>
+      <c r="Q31">
+        <v>1.168451264289156</v>
+      </c>
+      <c r="R31">
+        <v>1.198835403604426</v>
+      </c>
+      <c r="S31">
+        <v>1.198835403604426</v>
+      </c>
+      <c r="T31">
+        <v>1.0112701821593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.001119992401232877</v>
+      </c>
+      <c r="D32">
+        <v>0.1028733996241096</v>
+      </c>
+      <c r="E32">
+        <v>0.001119992401232877</v>
+      </c>
+      <c r="F32">
+        <v>5.395430887254794</v>
+      </c>
+      <c r="G32">
+        <v>-0.001354962142191781</v>
+      </c>
+      <c r="H32">
+        <v>0.009088114710136987</v>
+      </c>
+      <c r="I32">
+        <v>5.395430887254794</v>
+      </c>
+      <c r="J32">
+        <v>0.3859526074441095</v>
+      </c>
+      <c r="K32">
+        <v>5.395430887254794</v>
+      </c>
+      <c r="L32">
+        <v>0.1028733996241096</v>
+      </c>
+      <c r="M32">
+        <v>0.05199669601267123</v>
+      </c>
+      <c r="N32">
+        <v>0.05199669601267123</v>
+      </c>
+      <c r="O32">
+        <v>0.03421280996105022</v>
+      </c>
+      <c r="P32">
+        <v>1.833141426426712</v>
+      </c>
+      <c r="Q32">
+        <v>1.833141426426712</v>
+      </c>
+      <c r="R32">
+        <v>2.723713791633733</v>
+      </c>
+      <c r="S32">
+        <v>2.723713791633733</v>
+      </c>
+      <c r="T32">
+        <v>0.9821850065486987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>6.601762195012631</v>
+      </c>
+      <c r="D33">
+        <v>3.309808958957896</v>
+      </c>
+      <c r="E33">
+        <v>6.601762195012631</v>
+      </c>
+      <c r="F33">
+        <v>3.303448206222105</v>
+      </c>
+      <c r="G33">
+        <v>0.0008476968221052631</v>
+      </c>
+      <c r="H33">
+        <v>9.923039998606319</v>
+      </c>
+      <c r="I33">
+        <v>3.303448206222105</v>
+      </c>
+      <c r="J33">
+        <v>-0.0005138362684210517</v>
+      </c>
+      <c r="K33">
+        <v>3.303448206222105</v>
+      </c>
+      <c r="L33">
+        <v>3.309808958957896</v>
+      </c>
+      <c r="M33">
+        <v>4.955785576985264</v>
+      </c>
+      <c r="N33">
+        <v>4.955785576985264</v>
+      </c>
+      <c r="O33">
+        <v>3.304139616930878</v>
+      </c>
+      <c r="P33">
+        <v>4.405006453397544</v>
+      </c>
+      <c r="Q33">
+        <v>4.405006453397544</v>
+      </c>
+      <c r="R33">
+        <v>4.129616891603684</v>
+      </c>
+      <c r="S33">
+        <v>4.129616891603684</v>
+      </c>
+      <c r="T33">
+        <v>3.856398869892105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>-0.00226567923368421</v>
+      </c>
+      <c r="D34">
+        <v>0.6001760884957894</v>
+      </c>
+      <c r="E34">
+        <v>-0.00226567923368421</v>
+      </c>
+      <c r="F34">
+        <v>6.808443637733157</v>
+      </c>
+      <c r="G34">
+        <v>-0.0003304021682105264</v>
+      </c>
+      <c r="H34">
+        <v>-0.001091404752105262</v>
+      </c>
+      <c r="I34">
+        <v>6.808443637733157</v>
+      </c>
+      <c r="J34">
+        <v>0.8881698705147368</v>
+      </c>
+      <c r="K34">
+        <v>6.808443637733157</v>
+      </c>
+      <c r="L34">
+        <v>0.6001760884957894</v>
+      </c>
+      <c r="M34">
+        <v>0.2989552046310526</v>
+      </c>
+      <c r="N34">
+        <v>0.2989552046310526</v>
+      </c>
+      <c r="O34">
+        <v>0.1991933356979649</v>
+      </c>
+      <c r="P34">
+        <v>2.468784682331754</v>
+      </c>
+      <c r="Q34">
+        <v>2.468784682331755</v>
+      </c>
+      <c r="R34">
+        <v>3.553699421182105</v>
+      </c>
+      <c r="S34">
+        <v>3.553699421182105</v>
+      </c>
+      <c r="T34">
+        <v>1.382183685098281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.3973599036156725</v>
+      </c>
+      <c r="D35">
+        <v>0.5796003230327154</v>
+      </c>
+      <c r="E35">
+        <v>0.3973599036156725</v>
+      </c>
+      <c r="F35">
+        <v>0.4387715289477302</v>
+      </c>
+      <c r="G35">
+        <v>0.3918337836049824</v>
+      </c>
+      <c r="H35">
+        <v>0.6242358065958095</v>
+      </c>
+      <c r="I35">
+        <v>0.4387715289477302</v>
+      </c>
+      <c r="J35">
+        <v>0.5257771154448309</v>
+      </c>
+      <c r="K35">
+        <v>0.4387715289477302</v>
+      </c>
+      <c r="L35">
+        <v>0.5796003230327154</v>
+      </c>
+      <c r="M35">
+        <v>0.4884801133241939</v>
+      </c>
+      <c r="N35">
+        <v>0.4884801133241939</v>
+      </c>
+      <c r="O35">
+        <v>0.4562646700844568</v>
+      </c>
+      <c r="P35">
+        <v>0.471910585198706</v>
+      </c>
+      <c r="Q35">
+        <v>0.471910585198706</v>
+      </c>
+      <c r="R35">
+        <v>0.4636258211359621</v>
+      </c>
+      <c r="S35">
+        <v>0.4636258211359621</v>
+      </c>
+      <c r="T35">
+        <v>0.4929297435402901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.006308821151159</v>
+      </c>
+      <c r="D36">
+        <v>0.9982362745432977</v>
+      </c>
+      <c r="E36">
+        <v>1.006308821151159</v>
+      </c>
+      <c r="F36">
+        <v>1.023633829925896</v>
+      </c>
+      <c r="G36">
+        <v>0.9649615010097166</v>
+      </c>
+      <c r="H36">
+        <v>1.032994164349297</v>
+      </c>
+      <c r="I36">
+        <v>1.023633829925896</v>
+      </c>
+      <c r="J36">
+        <v>0.9858809946172459</v>
+      </c>
+      <c r="K36">
+        <v>1.023633829925896</v>
+      </c>
+      <c r="L36">
+        <v>0.9982362745432977</v>
+      </c>
+      <c r="M36">
+        <v>1.002272547847229</v>
+      </c>
+      <c r="N36">
+        <v>1.002272547847229</v>
+      </c>
+      <c r="O36">
+        <v>0.9898355322347245</v>
+      </c>
+      <c r="P36">
+        <v>1.009392975206785</v>
+      </c>
+      <c r="Q36">
+        <v>1.009392975206785</v>
+      </c>
+      <c r="R36">
+        <v>1.012953188886563</v>
+      </c>
+      <c r="S36">
+        <v>1.012953188886563</v>
+      </c>
+      <c r="T36">
+        <v>1.002002597599436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.01941691864693</v>
+      </c>
+      <c r="D37">
+        <v>1.015786721213073</v>
+      </c>
+      <c r="E37">
+        <v>1.01941691864693</v>
+      </c>
+      <c r="F37">
+        <v>1.123990509764879</v>
+      </c>
+      <c r="G37">
+        <v>0.9427738294905212</v>
+      </c>
+      <c r="H37">
+        <v>1.05729744450234</v>
+      </c>
+      <c r="I37">
+        <v>1.123990509764879</v>
+      </c>
+      <c r="J37">
+        <v>0.9839700539437775</v>
+      </c>
+      <c r="K37">
+        <v>1.123990509764879</v>
+      </c>
+      <c r="L37">
+        <v>1.015786721213073</v>
+      </c>
+      <c r="M37">
+        <v>1.017601819930001</v>
+      </c>
+      <c r="N37">
+        <v>1.017601819930001</v>
+      </c>
+      <c r="O37">
+        <v>0.9926591564501747</v>
+      </c>
+      <c r="P37">
+        <v>1.053064716541627</v>
+      </c>
+      <c r="Q37">
+        <v>1.053064716541627</v>
+      </c>
+      <c r="R37">
+        <v>1.07079616484744</v>
+      </c>
+      <c r="S37">
+        <v>1.07079616484744</v>
+      </c>
+      <c r="T37">
+        <v>1.023872579593587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.8056008462519536</v>
+      </c>
+      <c r="D38">
+        <v>0.8524189214238492</v>
+      </c>
+      <c r="E38">
+        <v>0.8056008462519536</v>
+      </c>
+      <c r="F38">
+        <v>1.307419741174124</v>
+      </c>
+      <c r="G38">
+        <v>0.9256689724067307</v>
+      </c>
+      <c r="H38">
+        <v>1.428328041219783</v>
+      </c>
+      <c r="I38">
+        <v>1.307419741174124</v>
+      </c>
+      <c r="J38">
+        <v>0.9957995130369646</v>
+      </c>
+      <c r="K38">
+        <v>1.307419741174124</v>
+      </c>
+      <c r="L38">
+        <v>0.8524189214238492</v>
+      </c>
+      <c r="M38">
+        <v>0.8290098838379014</v>
+      </c>
+      <c r="N38">
+        <v>0.8290098838379014</v>
+      </c>
+      <c r="O38">
+        <v>0.8612295800275112</v>
+      </c>
+      <c r="P38">
+        <v>0.9884798362833088</v>
+      </c>
+      <c r="Q38">
+        <v>0.9884798362833088</v>
+      </c>
+      <c r="R38">
+        <v>1.068214812506012</v>
+      </c>
+      <c r="S38">
+        <v>1.068214812506012</v>
+      </c>
+      <c r="T38">
+        <v>1.052539339252234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.06169644836268144</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.836565574558004</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.06169644836268144</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.5847068524227</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.268379127087099</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.8462819967269253</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.5847068524227</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.8016851739240414</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.5847068524227</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.836565574558004</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9491310114603428</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9491310114603428</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.055547050002595</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.160989625114462</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.160989625114462</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.266918931941521</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.266918931941521</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.066552528846908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.851770008633595</v>
+      </c>
+      <c r="D40">
+        <v>1.099222785315436</v>
+      </c>
+      <c r="E40">
+        <v>0.851770008633595</v>
+      </c>
+      <c r="F40">
+        <v>0.9415517753992753</v>
+      </c>
+      <c r="G40">
+        <v>0.7605759641556564</v>
+      </c>
+      <c r="H40">
+        <v>2.012584438636983</v>
+      </c>
+      <c r="I40">
+        <v>0.9415517753992753</v>
+      </c>
+      <c r="J40">
+        <v>0.9441926317649186</v>
+      </c>
+      <c r="K40">
+        <v>0.9415517753992753</v>
+      </c>
+      <c r="L40">
+        <v>1.099222785315436</v>
+      </c>
+      <c r="M40">
+        <v>0.9754963969745154</v>
+      </c>
+      <c r="N40">
+        <v>0.9754963969745154</v>
+      </c>
+      <c r="O40">
+        <v>0.9038562527015624</v>
+      </c>
+      <c r="P40">
+        <v>0.9641815231161021</v>
+      </c>
+      <c r="Q40">
+        <v>0.9641815231161021</v>
+      </c>
+      <c r="R40">
+        <v>0.9585240861868953</v>
+      </c>
+      <c r="S40">
+        <v>0.9585240861868953</v>
+      </c>
+      <c r="T40">
+        <v>1.101649600650977</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9969444459098589</v>
+      </c>
+      <c r="D41">
+        <v>0.989399913916267</v>
+      </c>
+      <c r="E41">
+        <v>0.9969444459098589</v>
+      </c>
+      <c r="F41">
+        <v>1.130156123056586</v>
+      </c>
+      <c r="G41">
+        <v>0.9763865285737867</v>
+      </c>
+      <c r="H41">
+        <v>0.8777391286592333</v>
+      </c>
+      <c r="I41">
+        <v>1.130156123056586</v>
+      </c>
+      <c r="J41">
+        <v>0.9732016149965075</v>
+      </c>
+      <c r="K41">
+        <v>1.130156123056586</v>
+      </c>
+      <c r="L41">
+        <v>0.989399913916267</v>
+      </c>
+      <c r="M41">
+        <v>0.9931721799130629</v>
+      </c>
+      <c r="N41">
+        <v>0.9931721799130629</v>
+      </c>
+      <c r="O41">
+        <v>0.9875769627999708</v>
+      </c>
+      <c r="P41">
+        <v>1.038833494294237</v>
+      </c>
+      <c r="Q41">
+        <v>1.038833494294237</v>
+      </c>
+      <c r="R41">
+        <v>1.061664151484824</v>
+      </c>
+      <c r="S41">
+        <v>1.061664151484824</v>
+      </c>
+      <c r="T41">
+        <v>0.9906379591853733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.4835410764776424</v>
+      </c>
+      <c r="D42">
+        <v>0.6764684046235337</v>
+      </c>
+      <c r="E42">
+        <v>0.4835410764776424</v>
+      </c>
+      <c r="F42">
+        <v>1.53076712374707</v>
+      </c>
+      <c r="G42">
+        <v>0.7003684318945393</v>
+      </c>
+      <c r="H42">
+        <v>1.588371148345616</v>
+      </c>
+      <c r="I42">
+        <v>1.53076712374707</v>
+      </c>
+      <c r="J42">
+        <v>0.957212436414106</v>
+      </c>
+      <c r="K42">
+        <v>1.53076712374707</v>
+      </c>
+      <c r="L42">
+        <v>0.6764684046235337</v>
+      </c>
+      <c r="M42">
+        <v>0.5800047405505881</v>
+      </c>
+      <c r="N42">
+        <v>0.5800047405505881</v>
+      </c>
+      <c r="O42">
+        <v>0.6201259709985719</v>
+      </c>
+      <c r="P42">
+        <v>0.8969255349494155</v>
+      </c>
+      <c r="Q42">
+        <v>0.8969255349494155</v>
+      </c>
+      <c r="R42">
+        <v>1.055385932148829</v>
+      </c>
+      <c r="S42">
+        <v>1.055385932148829</v>
+      </c>
+      <c r="T42">
+        <v>0.9894547702504179</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.195490837914317</v>
+        <v>0.9797876353623959</v>
       </c>
       <c r="D3">
-        <v>1.044339935877783</v>
+        <v>0.9916515073023822</v>
       </c>
       <c r="E3">
-        <v>0.955210689349141</v>
+        <v>0.9797876353623959</v>
       </c>
       <c r="F3">
-        <v>1.195490837914317</v>
+        <v>1.116252887230896</v>
       </c>
       <c r="G3">
-        <v>0.9837716326017237</v>
+        <v>0.9635938613934993</v>
       </c>
       <c r="H3">
-        <v>0.925541312696619</v>
+        <v>1.02197665004722</v>
       </c>
       <c r="I3">
-        <v>0.9619606352372048</v>
+        <v>1.116252887230896</v>
       </c>
       <c r="J3">
-        <v>1.044339935877783</v>
+        <v>0.9860269321182269</v>
       </c>
       <c r="K3">
-        <v>1.195490837914317</v>
+        <v>1.116252887230896</v>
       </c>
       <c r="L3">
-        <v>0.955210689349141</v>
+        <v>0.9916515073023822</v>
       </c>
       <c r="M3">
-        <v>0.999775312613462</v>
+        <v>0.985719571332389</v>
       </c>
       <c r="N3">
-        <v>0.999775312613462</v>
+        <v>0.985719571332389</v>
       </c>
       <c r="O3">
-        <v>0.9750306459745143</v>
+        <v>0.9783443346860924</v>
       </c>
       <c r="P3">
-        <v>1.06501382104708</v>
+        <v>1.029230676631891</v>
       </c>
       <c r="Q3">
-        <v>1.06501382104708</v>
+        <v>1.029230676631891</v>
       </c>
       <c r="R3">
-        <v>1.097633075263889</v>
+        <v>1.050986229281643</v>
       </c>
       <c r="S3">
-        <v>1.097633075263889</v>
+        <v>1.050986229281643</v>
       </c>
       <c r="T3">
-        <v>1.011052507279465</v>
+        <v>1.009881578909103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.541790846071244</v>
+        <v>0.851770008633595</v>
       </c>
       <c r="D4">
-        <v>0.733943185270602</v>
+        <v>1.099222785315436</v>
       </c>
       <c r="E4">
-        <v>0.7766450933924975</v>
+        <v>0.851770008633595</v>
       </c>
       <c r="F4">
-        <v>1.541790846071244</v>
+        <v>0.9415517753992753</v>
       </c>
       <c r="G4">
-        <v>0.9689627888128046</v>
+        <v>0.7605759641556564</v>
       </c>
       <c r="H4">
-        <v>0.8206173093207476</v>
+        <v>2.012584438636983</v>
       </c>
       <c r="I4">
-        <v>0.8735476757343283</v>
+        <v>0.9415517753992753</v>
       </c>
       <c r="J4">
-        <v>0.733943185270602</v>
+        <v>0.9441926317649186</v>
       </c>
       <c r="K4">
-        <v>1.541790846071244</v>
+        <v>0.9415517753992753</v>
       </c>
       <c r="L4">
-        <v>0.7766450933924975</v>
+        <v>1.099222785315436</v>
       </c>
       <c r="M4">
-        <v>0.7552941393315498</v>
+        <v>0.9754963969745154</v>
       </c>
       <c r="N4">
-        <v>0.7552941393315498</v>
+        <v>0.9754963969745154</v>
       </c>
       <c r="O4">
-        <v>0.777068529327949</v>
+        <v>0.9038562527015624</v>
       </c>
       <c r="P4">
-        <v>1.017459708244781</v>
+        <v>0.9641815231161021</v>
       </c>
       <c r="Q4">
-        <v>1.017459708244781</v>
+        <v>0.9641815231161021</v>
       </c>
       <c r="R4">
-        <v>1.148542492701397</v>
+        <v>0.9585240861868953</v>
       </c>
       <c r="S4">
-        <v>1.148542492701397</v>
+        <v>0.9585240861868953</v>
       </c>
       <c r="T4">
-        <v>0.9525844831003707</v>
+        <v>1.101649600650977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.962273870585717</v>
+        <v>0.7444249987458623</v>
       </c>
       <c r="D5">
-        <v>0.05555108493494915</v>
+        <v>1.070003726847156</v>
       </c>
       <c r="E5">
-        <v>0.9826027997012169</v>
+        <v>0.7444249987458623</v>
       </c>
       <c r="F5">
-        <v>1.962273870585717</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="G5">
-        <v>0.1278515646066429</v>
+        <v>0.7439715252950169</v>
       </c>
       <c r="H5">
-        <v>1.112002544241577</v>
+        <v>1.264822229759062</v>
       </c>
       <c r="I5">
-        <v>0.626530264894224</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="J5">
-        <v>0.05555108493494915</v>
+        <v>0.9389416985560169</v>
       </c>
       <c r="K5">
-        <v>1.962273870585717</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="L5">
-        <v>0.9826027997012169</v>
+        <v>1.070003726847156</v>
       </c>
       <c r="M5">
-        <v>0.519076942318083</v>
+        <v>0.907214362796509</v>
       </c>
       <c r="N5">
-        <v>0.519076942318083</v>
+        <v>0.907214362796509</v>
       </c>
       <c r="O5">
-        <v>0.7167188096259144</v>
+        <v>0.852800083629345</v>
       </c>
       <c r="P5">
-        <v>1.000142585073961</v>
+        <v>0.9548197119431237</v>
       </c>
       <c r="Q5">
-        <v>1.000142585073961</v>
+        <v>0.9548197119431237</v>
       </c>
       <c r="R5">
-        <v>1.2406754064519</v>
+        <v>0.978622386516431</v>
       </c>
       <c r="S5">
-        <v>1.2406754064519</v>
+        <v>0.978622386516431</v>
       </c>
       <c r="T5">
-        <v>0.811135354827388</v>
+        <v>0.9686990982399112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.393214268381328</v>
+        <v>0.3973599036156725</v>
       </c>
       <c r="D6">
-        <v>2.296459495969617</v>
+        <v>0.5796003230327154</v>
       </c>
       <c r="E6">
-        <v>0.2112257965121173</v>
+        <v>0.3973599036156725</v>
       </c>
       <c r="F6">
-        <v>4.393214268381328</v>
+        <v>0.4387715289477302</v>
       </c>
       <c r="G6">
-        <v>0.2108814377297772</v>
+        <v>0.3918337836049824</v>
       </c>
       <c r="H6">
-        <v>0.03956283120654348</v>
+        <v>0.6242358065958095</v>
       </c>
       <c r="I6">
-        <v>0.5254621596127299</v>
+        <v>0.4387715289477302</v>
       </c>
       <c r="J6">
-        <v>2.296459495969617</v>
+        <v>0.5257771154448309</v>
       </c>
       <c r="K6">
-        <v>4.393214268381328</v>
+        <v>0.4387715289477302</v>
       </c>
       <c r="L6">
-        <v>0.2112257965121173</v>
+        <v>0.5796003230327154</v>
       </c>
       <c r="M6">
-        <v>1.253842646240867</v>
+        <v>0.4884801133241939</v>
       </c>
       <c r="N6">
-        <v>1.253842646240867</v>
+        <v>0.4884801133241939</v>
       </c>
       <c r="O6">
-        <v>0.8490827078960929</v>
+        <v>0.4562646700844568</v>
       </c>
       <c r="P6">
-        <v>2.300299853621021</v>
+        <v>0.471910585198706</v>
       </c>
       <c r="Q6">
-        <v>2.300299853621021</v>
+        <v>0.471910585198706</v>
       </c>
       <c r="R6">
-        <v>2.823528457311098</v>
+        <v>0.4636258211359621</v>
       </c>
       <c r="S6">
-        <v>2.823528457311098</v>
+        <v>0.4636258211359621</v>
       </c>
       <c r="T6">
-        <v>1.279467664902019</v>
+        <v>0.4929297435402901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.071434889727407</v>
+        <v>0.9874950177581305</v>
       </c>
       <c r="D7">
-        <v>1.010284289871647</v>
+        <v>0.9497891013710018</v>
       </c>
       <c r="E7">
-        <v>1.001820610558245</v>
+        <v>0.9874950177581305</v>
       </c>
       <c r="F7">
-        <v>1.071434889727407</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="G7">
-        <v>1.027880071193997</v>
+        <v>0.9210405441788202</v>
       </c>
       <c r="H7">
-        <v>0.9603901839904817</v>
+        <v>1.006201098865553</v>
       </c>
       <c r="I7">
-        <v>0.9873271913479803</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="J7">
-        <v>1.010284289871647</v>
+        <v>0.9690388322409507</v>
       </c>
       <c r="K7">
-        <v>1.071434889727407</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="L7">
-        <v>1.001820610558245</v>
+        <v>0.9497891013710018</v>
       </c>
       <c r="M7">
-        <v>1.006052450214946</v>
+        <v>0.9686420595645662</v>
       </c>
       <c r="N7">
-        <v>1.006052450214946</v>
+        <v>0.9686420595645662</v>
       </c>
       <c r="O7">
-        <v>0.9908316948067913</v>
+        <v>0.9527748877693175</v>
       </c>
       <c r="P7">
-        <v>1.0278465967191</v>
+        <v>1.027024039854326</v>
       </c>
       <c r="Q7">
-        <v>1.0278465967191</v>
+        <v>1.027024039854326</v>
       </c>
       <c r="R7">
-        <v>1.038743669971176</v>
+        <v>1.056215029999207</v>
       </c>
       <c r="S7">
-        <v>1.038743669971176</v>
+        <v>1.056215029999207</v>
       </c>
       <c r="T7">
-        <v>1.00985620611496</v>
+        <v>0.9962254324747173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.116252887230896</v>
+        <v>1.01941691864693</v>
       </c>
       <c r="D8">
-        <v>0.9797876353623968</v>
+        <v>1.015786721213073</v>
       </c>
       <c r="E8">
-        <v>0.9916515073023833</v>
+        <v>1.01941691864693</v>
       </c>
       <c r="F8">
-        <v>1.116252887230896</v>
+        <v>1.123990509764879</v>
       </c>
       <c r="G8">
-        <v>1.02197665004721</v>
+        <v>0.9427738294905212</v>
       </c>
       <c r="H8">
-        <v>0.9635938613934985</v>
+        <v>1.05729744450234</v>
       </c>
       <c r="I8">
-        <v>0.9860269321182278</v>
+        <v>1.123990509764879</v>
       </c>
       <c r="J8">
-        <v>0.9797876353623968</v>
+        <v>0.9839700539437775</v>
       </c>
       <c r="K8">
-        <v>1.116252887230896</v>
+        <v>1.123990509764879</v>
       </c>
       <c r="L8">
-        <v>0.9916515073023833</v>
+        <v>1.015786721213073</v>
       </c>
       <c r="M8">
-        <v>0.9857195713323901</v>
+        <v>1.017601819930001</v>
       </c>
       <c r="N8">
-        <v>0.9857195713323901</v>
+        <v>1.017601819930001</v>
       </c>
       <c r="O8">
-        <v>0.9783443346860929</v>
+        <v>0.9926591564501747</v>
       </c>
       <c r="P8">
-        <v>1.029230676631892</v>
+        <v>1.053064716541627</v>
       </c>
       <c r="Q8">
-        <v>1.029230676631892</v>
+        <v>1.053064716541627</v>
       </c>
       <c r="R8">
-        <v>1.050986229281643</v>
+        <v>1.07079616484744</v>
       </c>
       <c r="S8">
-        <v>1.050986229281643</v>
+        <v>1.07079616484744</v>
       </c>
       <c r="T8">
-        <v>1.009881578909102</v>
+        <v>1.023872579593587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.372970627937032</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="D9">
-        <v>0.9391677996117509</v>
+        <v>0.7766450933924975</v>
       </c>
       <c r="E9">
-        <v>1.085614807236425</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="F9">
-        <v>1.372970627937032</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="G9">
-        <v>1.015586021961063</v>
+        <v>0.8206173093207475</v>
       </c>
       <c r="H9">
-        <v>0.9305890109229851</v>
+        <v>0.9689627888128046</v>
       </c>
       <c r="I9">
-        <v>0.960471322291459</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="J9">
-        <v>0.9391677996117509</v>
+        <v>0.8735476757343285</v>
       </c>
       <c r="K9">
-        <v>1.372970627937032</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="L9">
-        <v>1.085614807236425</v>
+        <v>0.7766450933924975</v>
       </c>
       <c r="M9">
-        <v>1.012391303424088</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="N9">
-        <v>1.012391303424088</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="O9">
-        <v>0.9851238725903869</v>
+        <v>0.7770685293279489</v>
       </c>
       <c r="P9">
-        <v>1.132584411595069</v>
+        <v>1.017459708244781</v>
       </c>
       <c r="Q9">
-        <v>1.132584411595069</v>
+        <v>1.017459708244781</v>
       </c>
       <c r="R9">
-        <v>1.19268096568056</v>
+        <v>1.148542492701397</v>
       </c>
       <c r="S9">
-        <v>1.19268096568056</v>
+        <v>1.148542492701397</v>
       </c>
       <c r="T9">
-        <v>1.050733264993452</v>
+        <v>0.9525844831003707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.395567756190374</v>
+        <v>0.3632351708199228</v>
       </c>
       <c r="D10">
-        <v>0.961685156161463</v>
+        <v>0.5960404856187477</v>
       </c>
       <c r="E10">
-        <v>1.049645499617224</v>
+        <v>0.3632351708199228</v>
       </c>
       <c r="F10">
-        <v>1.395567756190374</v>
+        <v>0.4035575041013881</v>
       </c>
       <c r="G10">
-        <v>1.121562489256123</v>
+        <v>0.4119837329990598</v>
       </c>
       <c r="H10">
-        <v>0.8421502722659545</v>
+        <v>0.593538398789891</v>
       </c>
       <c r="I10">
-        <v>1.027048558949295</v>
+        <v>0.4035575041013881</v>
       </c>
       <c r="J10">
-        <v>0.961685156161463</v>
+        <v>0.4803117188764396</v>
       </c>
       <c r="K10">
-        <v>1.395567756190374</v>
+        <v>0.4035575041013881</v>
       </c>
       <c r="L10">
-        <v>1.049645499617224</v>
+        <v>0.5960404856187477</v>
       </c>
       <c r="M10">
-        <v>1.005665327889343</v>
+        <v>0.4796378282193352</v>
       </c>
       <c r="N10">
-        <v>1.005665327889343</v>
+        <v>0.4796378282193352</v>
       </c>
       <c r="O10">
-        <v>0.9511603093482138</v>
+        <v>0.4570864631459101</v>
       </c>
       <c r="P10">
-        <v>1.135632803989687</v>
+        <v>0.4542777201800195</v>
       </c>
       <c r="Q10">
-        <v>1.135632803989687</v>
+        <v>0.4542777201800196</v>
       </c>
       <c r="R10">
-        <v>1.200616542039859</v>
+        <v>0.4415976661603617</v>
       </c>
       <c r="S10">
-        <v>1.200616542039859</v>
+        <v>0.4415976661603617</v>
       </c>
       <c r="T10">
-        <v>1.066276622073406</v>
+        <v>0.4747778352009082</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.536490337193099</v>
+        <v>0.74067024337197</v>
       </c>
       <c r="D11">
-        <v>1.480301314783622</v>
+        <v>0.973304133046064</v>
       </c>
       <c r="E11">
-        <v>1.09029895811227</v>
+        <v>0.74067024337197</v>
       </c>
       <c r="F11">
-        <v>2.536490337193099</v>
+        <v>1.029206289541799</v>
       </c>
       <c r="G11">
-        <v>0.9204487261761448</v>
+        <v>0.768719938411162</v>
       </c>
       <c r="H11">
-        <v>1.270426160046835</v>
+        <v>1.520558247123595</v>
       </c>
       <c r="I11">
-        <v>0.7265650020706058</v>
+        <v>1.029206289541799</v>
       </c>
       <c r="J11">
-        <v>1.480301314783622</v>
+        <v>1.0033437919844</v>
       </c>
       <c r="K11">
-        <v>2.536490337193099</v>
+        <v>1.029206289541799</v>
       </c>
       <c r="L11">
-        <v>1.09029895811227</v>
+        <v>0.973304133046064</v>
       </c>
       <c r="M11">
-        <v>1.285300136447946</v>
+        <v>0.856987188209017</v>
       </c>
       <c r="N11">
-        <v>1.285300136447946</v>
+        <v>0.856987188209017</v>
       </c>
       <c r="O11">
-        <v>1.280342144314242</v>
+        <v>0.827564771609732</v>
       </c>
       <c r="P11">
-        <v>1.702363536696331</v>
+        <v>0.9143935553199443</v>
       </c>
       <c r="Q11">
-        <v>1.70236353669633</v>
+        <v>0.9143935553199444</v>
       </c>
       <c r="R11">
-        <v>1.910895236820523</v>
+        <v>0.9430967388754081</v>
       </c>
       <c r="S11">
-        <v>1.910895236820523</v>
+        <v>0.9430967388754081</v>
       </c>
       <c r="T11">
-        <v>1.337421749730429</v>
+        <v>1.005967107246498</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.3015964858162223</v>
+        <v>0.9848198563147745</v>
       </c>
       <c r="D12">
-        <v>0.001214817681315023</v>
+        <v>1.173255566196131</v>
       </c>
       <c r="E12">
-        <v>1.123557152391312</v>
+        <v>0.9848198563147745</v>
       </c>
       <c r="F12">
-        <v>0.3015964858162223</v>
+        <v>0.7711332520430405</v>
       </c>
       <c r="G12">
-        <v>0.002872278369960733</v>
+        <v>0.7934317811215479</v>
       </c>
       <c r="H12">
-        <v>2.050607645032628</v>
+        <v>1.139093545399441</v>
       </c>
       <c r="I12">
-        <v>2.312062175003156</v>
+        <v>0.7711332520430405</v>
       </c>
       <c r="J12">
-        <v>0.001214817681315023</v>
+        <v>0.8831179935072694</v>
       </c>
       <c r="K12">
-        <v>0.3015964858162223</v>
+        <v>0.7711332520430405</v>
       </c>
       <c r="L12">
-        <v>1.123557152391312</v>
+        <v>1.173255566196131</v>
       </c>
       <c r="M12">
-        <v>0.5623859850363137</v>
+        <v>1.079037711255453</v>
       </c>
       <c r="N12">
-        <v>0.5623859850363137</v>
+        <v>1.079037711255453</v>
       </c>
       <c r="O12">
-        <v>1.058459871701752</v>
+        <v>0.9838357345441513</v>
       </c>
       <c r="P12">
-        <v>0.4754561519629499</v>
+        <v>0.9764028915179822</v>
       </c>
       <c r="Q12">
-        <v>0.4754561519629499</v>
+        <v>0.9764028915179822</v>
       </c>
       <c r="R12">
-        <v>0.431991235426268</v>
+        <v>0.9250854816492468</v>
       </c>
       <c r="S12">
-        <v>0.431991235426268</v>
+        <v>0.9250854816492468</v>
       </c>
       <c r="T12">
-        <v>0.9653184257157656</v>
+        <v>0.9574753324303674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.4066822807472747</v>
+        <v>1.562719062172242</v>
       </c>
       <c r="D13">
-        <v>4.775620040547365</v>
+        <v>0.8818969698062644</v>
       </c>
       <c r="E13">
-        <v>0.3136805992314787</v>
+        <v>1.562719062172242</v>
       </c>
       <c r="F13">
-        <v>0.4066822807472747</v>
+        <v>1.0350615298997</v>
       </c>
       <c r="G13">
-        <v>1.585107506038628</v>
+        <v>1.130478668372556</v>
       </c>
       <c r="H13">
-        <v>0.2960677502347536</v>
+        <v>0.5525545378497957</v>
       </c>
       <c r="I13">
-        <v>0.4977431786562394</v>
+        <v>1.0350615298997</v>
       </c>
       <c r="J13">
-        <v>4.775620040547365</v>
+        <v>0.8815961479472589</v>
       </c>
       <c r="K13">
-        <v>0.4066822807472747</v>
+        <v>1.0350615298997</v>
       </c>
       <c r="L13">
-        <v>0.3136805992314787</v>
+        <v>0.8818969698062644</v>
       </c>
       <c r="M13">
-        <v>2.544650319889421</v>
+        <v>1.222308015989253</v>
       </c>
       <c r="N13">
-        <v>2.544650319889421</v>
+        <v>1.222308015989253</v>
       </c>
       <c r="O13">
-        <v>1.795122796671199</v>
+        <v>1.191698233450355</v>
       </c>
       <c r="P13">
-        <v>1.831994306842039</v>
+        <v>1.159892520626069</v>
       </c>
       <c r="Q13">
-        <v>1.831994306842039</v>
+        <v>1.159892520626069</v>
       </c>
       <c r="R13">
-        <v>1.475666300318348</v>
+        <v>1.128684772944476</v>
       </c>
       <c r="S13">
-        <v>1.475666300318348</v>
+        <v>1.128684772944476</v>
       </c>
       <c r="T13">
-        <v>1.312483559242623</v>
+        <v>1.007384486007969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.458858903566747</v>
+        <v>-0.008040382100000009</v>
       </c>
       <c r="D14">
-        <v>4.068226629054019</v>
+        <v>0.008483182300000001</v>
       </c>
       <c r="E14">
-        <v>0.003295046003179267</v>
+        <v>-0.008040382100000009</v>
       </c>
       <c r="F14">
-        <v>2.458858903566747</v>
+        <v>-0.01446468899999998</v>
       </c>
       <c r="G14">
-        <v>0.00161495399095469</v>
+        <v>-0.001910201400000003</v>
       </c>
       <c r="H14">
-        <v>2.391910056070607</v>
+        <v>-0.05284161199999995</v>
       </c>
       <c r="I14">
-        <v>1.827543285215588</v>
+        <v>-0.01446468899999998</v>
       </c>
       <c r="J14">
-        <v>4.068226629054019</v>
+        <v>0.03105051000000002</v>
       </c>
       <c r="K14">
-        <v>2.458858903566747</v>
+        <v>-0.01446468899999998</v>
       </c>
       <c r="L14">
-        <v>0.003295046003179267</v>
+        <v>0.008483182300000001</v>
       </c>
       <c r="M14">
-        <v>2.035760837528599</v>
+        <v>0.0002214000999999962</v>
       </c>
       <c r="N14">
-        <v>2.035760837528599</v>
+        <v>0.0002214000999999962</v>
       </c>
       <c r="O14">
-        <v>2.154477243709268</v>
+        <v>-0.0004891337333333368</v>
       </c>
       <c r="P14">
-        <v>2.176793526207982</v>
+        <v>-0.00467396293333333</v>
       </c>
       <c r="Q14">
-        <v>2.176793526207982</v>
+        <v>-0.004673962933333329</v>
       </c>
       <c r="R14">
-        <v>2.247309870547674</v>
+        <v>-0.007121644449999992</v>
       </c>
       <c r="S14">
-        <v>2.247309870547674</v>
+        <v>-0.007121644449999992</v>
       </c>
       <c r="T14">
-        <v>1.791908145650183</v>
+        <v>-0.006287198699999989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.001299449148443354</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D15">
-        <v>-0.002805162182525606</v>
+        <v>-0.012240956</v>
       </c>
       <c r="E15">
-        <v>1.084848418353441</v>
+        <v>0.00070900843</v>
       </c>
       <c r="F15">
-        <v>0.001299449148443354</v>
+        <v>121.14151</v>
       </c>
       <c r="G15">
-        <v>2.028399283513613</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="H15">
-        <v>2.009429656241364</v>
+        <v>0.010282672</v>
       </c>
       <c r="I15">
-        <v>0.7074621696031548</v>
+        <v>121.14151</v>
       </c>
       <c r="J15">
-        <v>-0.002805162182525606</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="K15">
-        <v>0.001299449148443354</v>
+        <v>121.14151</v>
       </c>
       <c r="L15">
-        <v>1.084848418353441</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M15">
-        <v>0.5410216280854578</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N15">
-        <v>0.5410216280854578</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O15">
-        <v>1.030490970804093</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P15">
-        <v>0.361114235106453</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q15">
-        <v>0.361114235106453</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R15">
-        <v>0.2711605386169506</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S15">
-        <v>0.2711605386169506</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T15">
-        <v>0.9714389691129152</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.023633829925897</v>
+        <v>0.013806896</v>
       </c>
       <c r="D16">
-        <v>1.00630882115116</v>
+        <v>-0.0020169837</v>
       </c>
       <c r="E16">
-        <v>0.9982362745432987</v>
+        <v>0.013806896</v>
       </c>
       <c r="F16">
-        <v>1.023633829925897</v>
+        <v>0.020769666</v>
       </c>
       <c r="G16">
-        <v>1.0329941643493</v>
+        <v>-0.0007488457399999999</v>
       </c>
       <c r="H16">
-        <v>0.9649615010097174</v>
+        <v>0.09509169100000001</v>
       </c>
       <c r="I16">
-        <v>0.9858809946172469</v>
+        <v>0.020769666</v>
       </c>
       <c r="J16">
-        <v>1.00630882115116</v>
+        <v>-0.009177290499999999</v>
       </c>
       <c r="K16">
-        <v>1.023633829925897</v>
+        <v>0.020769666</v>
       </c>
       <c r="L16">
-        <v>0.9982362745432987</v>
+        <v>-0.0020169837</v>
       </c>
       <c r="M16">
-        <v>1.002272547847229</v>
+        <v>0.005894956150000001</v>
       </c>
       <c r="N16">
-        <v>1.002272547847229</v>
+        <v>0.005894956150000001</v>
       </c>
       <c r="O16">
-        <v>0.9898355322347254</v>
+        <v>0.003680355520000001</v>
       </c>
       <c r="P16">
-        <v>1.009392975206785</v>
+        <v>0.01085319276666667</v>
       </c>
       <c r="Q16">
-        <v>1.009392975206785</v>
+        <v>0.01085319276666667</v>
       </c>
       <c r="R16">
-        <v>1.012953188886563</v>
+        <v>0.013332311075</v>
       </c>
       <c r="S16">
-        <v>1.012953188886563</v>
+        <v>0.013332311075</v>
       </c>
       <c r="T16">
-        <v>1.002002597599437</v>
+        <v>0.01962085551</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.123990509764879</v>
+        <v>0.014314704</v>
       </c>
       <c r="D17">
-        <v>1.01941691864693</v>
+        <v>-0.0037164054</v>
       </c>
       <c r="E17">
-        <v>1.015786721213073</v>
+        <v>0.014314704</v>
       </c>
       <c r="F17">
-        <v>1.123990509764879</v>
+        <v>0.0056704641</v>
       </c>
       <c r="G17">
-        <v>1.057297444502341</v>
+        <v>0.021292689</v>
       </c>
       <c r="H17">
-        <v>0.9427738294905205</v>
+        <v>-0.00055904866</v>
       </c>
       <c r="I17">
-        <v>0.9839700539437772</v>
+        <v>0.0056704641</v>
       </c>
       <c r="J17">
-        <v>1.01941691864693</v>
+        <v>-0.0092627588</v>
       </c>
       <c r="K17">
-        <v>1.123990509764879</v>
+        <v>0.0056704641</v>
       </c>
       <c r="L17">
-        <v>1.015786721213073</v>
+        <v>-0.0037164054</v>
       </c>
       <c r="M17">
-        <v>1.017601819930001</v>
+        <v>0.0052991493</v>
       </c>
       <c r="N17">
-        <v>1.017601819930001</v>
+        <v>0.0052991493</v>
       </c>
       <c r="O17">
-        <v>0.9926591564501743</v>
+        <v>0.0106303292</v>
       </c>
       <c r="P17">
-        <v>1.053064716541627</v>
+        <v>0.0054229209</v>
       </c>
       <c r="Q17">
-        <v>1.053064716541627</v>
+        <v>0.005422920899999999</v>
       </c>
       <c r="R17">
-        <v>1.07079616484744</v>
+        <v>0.005484806699999999</v>
       </c>
       <c r="S17">
-        <v>1.07079616484744</v>
+        <v>0.005484806699999999</v>
       </c>
       <c r="T17">
-        <v>1.023872579593587</v>
+        <v>0.00462327404</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.307419741174119</v>
+        <v>0.001119992401232877</v>
       </c>
       <c r="D18">
-        <v>0.8056008462519523</v>
+        <v>0.1028733996241096</v>
       </c>
       <c r="E18">
-        <v>0.8524189214238507</v>
+        <v>0.001119992401232877</v>
       </c>
       <c r="F18">
-        <v>1.307419741174119</v>
+        <v>5.395430887254794</v>
       </c>
       <c r="G18">
-        <v>1.42832804121978</v>
+        <v>-0.001354962142191781</v>
       </c>
       <c r="H18">
-        <v>0.925668972406732</v>
+        <v>0.009088114710136987</v>
       </c>
       <c r="I18">
-        <v>0.9957995130369652</v>
+        <v>5.395430887254794</v>
       </c>
       <c r="J18">
-        <v>0.8056008462519523</v>
+        <v>0.3859526074441095</v>
       </c>
       <c r="K18">
-        <v>1.307419741174119</v>
+        <v>5.395430887254794</v>
       </c>
       <c r="L18">
-        <v>0.8524189214238507</v>
+        <v>0.1028733996241096</v>
       </c>
       <c r="M18">
-        <v>0.8290098838379014</v>
+        <v>0.05199669601267123</v>
       </c>
       <c r="N18">
-        <v>0.8290098838379014</v>
+        <v>0.05199669601267123</v>
       </c>
       <c r="O18">
-        <v>0.8612295800275116</v>
+        <v>0.03421280996105022</v>
       </c>
       <c r="P18">
-        <v>0.988479836283307</v>
+        <v>1.833141426426712</v>
       </c>
       <c r="Q18">
-        <v>0.9884798362833073</v>
+        <v>1.833141426426712</v>
       </c>
       <c r="R18">
-        <v>1.06821481250601</v>
+        <v>2.723713791633733</v>
       </c>
       <c r="S18">
-        <v>1.06821481250601</v>
+        <v>2.723713791633733</v>
       </c>
       <c r="T18">
-        <v>1.052539339252233</v>
+        <v>0.9821850065486987</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.5847068524227</v>
+        <v>6.601762195012631</v>
       </c>
       <c r="D19">
-        <v>0.06169644836268144</v>
+        <v>3.309808958957896</v>
       </c>
       <c r="E19">
-        <v>1.836565574558004</v>
+        <v>6.601762195012631</v>
       </c>
       <c r="F19">
-        <v>1.5847068524227</v>
+        <v>3.303448206222105</v>
       </c>
       <c r="G19">
-        <v>0.8462819967269253</v>
+        <v>0.0008476968221052631</v>
       </c>
       <c r="H19">
-        <v>1.268379127087099</v>
+        <v>9.923039998606319</v>
       </c>
       <c r="I19">
-        <v>0.8016851739240414</v>
+        <v>3.303448206222105</v>
       </c>
       <c r="J19">
-        <v>0.06169644836268144</v>
+        <v>-0.0005138362684210517</v>
       </c>
       <c r="K19">
-        <v>1.5847068524227</v>
+        <v>3.303448206222105</v>
       </c>
       <c r="L19">
-        <v>1.836565574558004</v>
+        <v>3.309808958957896</v>
       </c>
       <c r="M19">
-        <v>0.9491310114603428</v>
+        <v>4.955785576985264</v>
       </c>
       <c r="N19">
-        <v>0.9491310114603428</v>
+        <v>4.955785576985264</v>
       </c>
       <c r="O19">
-        <v>1.055547050002595</v>
+        <v>3.304139616930878</v>
       </c>
       <c r="P19">
-        <v>1.160989625114462</v>
+        <v>4.405006453397544</v>
       </c>
       <c r="Q19">
-        <v>1.160989625114462</v>
+        <v>4.405006453397544</v>
       </c>
       <c r="R19">
-        <v>1.266918931941521</v>
+        <v>4.129616891603684</v>
       </c>
       <c r="S19">
-        <v>1.266918931941521</v>
+        <v>4.129616891603684</v>
       </c>
       <c r="T19">
-        <v>1.066552528846908</v>
+        <v>3.856398869892105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>-0.00226567923368421</v>
+      </c>
+      <c r="D20">
+        <v>0.6001760884957894</v>
+      </c>
+      <c r="E20">
+        <v>-0.00226567923368421</v>
+      </c>
+      <c r="F20">
+        <v>6.808443637733157</v>
+      </c>
+      <c r="G20">
+        <v>-0.0003304021682105264</v>
+      </c>
+      <c r="H20">
+        <v>-0.001091404752105262</v>
+      </c>
+      <c r="I20">
+        <v>6.808443637733157</v>
+      </c>
+      <c r="J20">
+        <v>0.8881698705147368</v>
+      </c>
+      <c r="K20">
+        <v>6.808443637733157</v>
+      </c>
+      <c r="L20">
+        <v>0.6001760884957894</v>
+      </c>
+      <c r="M20">
+        <v>0.2989552046310526</v>
+      </c>
+      <c r="N20">
+        <v>0.2989552046310526</v>
+      </c>
+      <c r="O20">
+        <v>0.1991933356979649</v>
+      </c>
+      <c r="P20">
+        <v>2.468784682331754</v>
+      </c>
+      <c r="Q20">
+        <v>2.468784682331755</v>
+      </c>
+      <c r="R20">
+        <v>3.553699421182105</v>
+      </c>
+      <c r="S20">
+        <v>3.553699421182105</v>
+      </c>
+      <c r="T20">
+        <v>1.382183685098281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>4.068226629054021</v>
+      </c>
+      <c r="D21">
+        <v>0.003295046003179265</v>
+      </c>
+      <c r="E21">
+        <v>4.068226629054021</v>
+      </c>
+      <c r="F21">
+        <v>2.458858903566748</v>
+      </c>
+      <c r="G21">
+        <v>2.391910056070606</v>
+      </c>
+      <c r="H21">
+        <v>0.001614953990954686</v>
+      </c>
+      <c r="I21">
+        <v>2.458858903566748</v>
+      </c>
+      <c r="J21">
+        <v>1.827543285215588</v>
+      </c>
+      <c r="K21">
+        <v>2.458858903566748</v>
+      </c>
+      <c r="L21">
+        <v>0.003295046003179265</v>
+      </c>
+      <c r="M21">
+        <v>2.0357608375286</v>
+      </c>
+      <c r="N21">
+        <v>2.0357608375286</v>
+      </c>
+      <c r="O21">
+        <v>2.154477243709269</v>
+      </c>
+      <c r="P21">
+        <v>2.176793526207983</v>
+      </c>
+      <c r="Q21">
+        <v>2.176793526207983</v>
+      </c>
+      <c r="R21">
+        <v>2.247309870547674</v>
+      </c>
+      <c r="S21">
+        <v>2.247309870547674</v>
+      </c>
+      <c r="T21">
+        <v>1.791908145650183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>-0.002805162182525607</v>
+      </c>
+      <c r="D22">
+        <v>1.084848418353441</v>
+      </c>
+      <c r="E22">
+        <v>-0.002805162182525607</v>
+      </c>
+      <c r="F22">
+        <v>0.001299449148443353</v>
+      </c>
+      <c r="G22">
+        <v>2.009429656241364</v>
+      </c>
+      <c r="H22">
+        <v>2.028399283513613</v>
+      </c>
+      <c r="I22">
+        <v>0.001299449148443353</v>
+      </c>
+      <c r="J22">
+        <v>0.7074621696031547</v>
+      </c>
+      <c r="K22">
+        <v>0.001299449148443353</v>
+      </c>
+      <c r="L22">
+        <v>1.084848418353441</v>
+      </c>
+      <c r="M22">
+        <v>0.5410216280854578</v>
+      </c>
+      <c r="N22">
+        <v>0.5410216280854578</v>
+      </c>
+      <c r="O22">
+        <v>1.030490970804093</v>
+      </c>
+      <c r="P22">
+        <v>0.361114235106453</v>
+      </c>
+      <c r="Q22">
+        <v>0.361114235106453</v>
+      </c>
+      <c r="R22">
+        <v>0.2711605386169506</v>
+      </c>
+      <c r="S22">
+        <v>0.2711605386169506</v>
+      </c>
+      <c r="T22">
+        <v>0.9714389691129149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.001214817681315028</v>
+      </c>
+      <c r="D23">
+        <v>1.123557152391315</v>
+      </c>
+      <c r="E23">
+        <v>0.001214817681315028</v>
+      </c>
+      <c r="F23">
+        <v>0.3015964858162223</v>
+      </c>
+      <c r="G23">
+        <v>2.050607645032628</v>
+      </c>
+      <c r="H23">
+        <v>0.002872278369960734</v>
+      </c>
+      <c r="I23">
+        <v>0.3015964858162223</v>
+      </c>
+      <c r="J23">
+        <v>2.312062175003153</v>
+      </c>
+      <c r="K23">
+        <v>0.3015964858162223</v>
+      </c>
+      <c r="L23">
+        <v>1.123557152391315</v>
+      </c>
+      <c r="M23">
+        <v>0.5623859850363149</v>
+      </c>
+      <c r="N23">
+        <v>0.5623859850363149</v>
+      </c>
+      <c r="O23">
+        <v>1.058459871701752</v>
+      </c>
+      <c r="P23">
+        <v>0.4754561519629507</v>
+      </c>
+      <c r="Q23">
+        <v>0.4754561519629507</v>
+      </c>
+      <c r="R23">
+        <v>0.4319912354262686</v>
+      </c>
+      <c r="S23">
+        <v>0.4319912354262686</v>
+      </c>
+      <c r="T23">
+        <v>0.9653184257157656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4.775620040547367</v>
+      </c>
+      <c r="D24">
+        <v>0.3136805992314787</v>
+      </c>
+      <c r="E24">
+        <v>4.775620040547367</v>
+      </c>
+      <c r="F24">
+        <v>0.4066822807472751</v>
+      </c>
+      <c r="G24">
+        <v>0.2960677502347535</v>
+      </c>
+      <c r="H24">
+        <v>1.585107506038629</v>
+      </c>
+      <c r="I24">
+        <v>0.4066822807472751</v>
+      </c>
+      <c r="J24">
+        <v>0.4977431786562403</v>
+      </c>
+      <c r="K24">
+        <v>0.4066822807472751</v>
+      </c>
+      <c r="L24">
+        <v>0.3136805992314787</v>
+      </c>
+      <c r="M24">
+        <v>2.544650319889423</v>
+      </c>
+      <c r="N24">
+        <v>2.544650319889423</v>
+      </c>
+      <c r="O24">
+        <v>1.7951227966712</v>
+      </c>
+      <c r="P24">
+        <v>1.83199430684204</v>
+      </c>
+      <c r="Q24">
+        <v>1.83199430684204</v>
+      </c>
+      <c r="R24">
+        <v>1.475666300318349</v>
+      </c>
+      <c r="S24">
+        <v>1.475666300318349</v>
+      </c>
+      <c r="T24">
+        <v>1.312483559242624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.002392685105947902</v>
+      </c>
+      <c r="D25">
+        <v>-0.0003878714882696759</v>
+      </c>
+      <c r="E25">
+        <v>0.002392685105947902</v>
+      </c>
+      <c r="F25">
+        <v>2.946005160007666</v>
+      </c>
+      <c r="G25">
+        <v>0.2609892138200792</v>
+      </c>
+      <c r="H25">
+        <v>0.0005097315444593208</v>
+      </c>
+      <c r="I25">
+        <v>2.946005160007666</v>
+      </c>
+      <c r="J25">
+        <v>1.093400606310508</v>
+      </c>
+      <c r="K25">
+        <v>2.946005160007666</v>
+      </c>
+      <c r="L25">
+        <v>-0.0003878714882696759</v>
+      </c>
+      <c r="M25">
+        <v>0.001002406808839113</v>
+      </c>
+      <c r="N25">
+        <v>0.001002406808839113</v>
+      </c>
+      <c r="O25">
+        <v>0.0876646758125858</v>
+      </c>
+      <c r="P25">
+        <v>0.9826699912084481</v>
+      </c>
+      <c r="Q25">
+        <v>0.9826699912084482</v>
+      </c>
+      <c r="R25">
+        <v>1.473503783408253</v>
+      </c>
+      <c r="S25">
+        <v>1.473503783408253</v>
+      </c>
+      <c r="T25">
+        <v>0.7171515875500653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.001770273504326211</v>
+      </c>
+      <c r="D26">
+        <v>3.612049851910613</v>
+      </c>
+      <c r="E26">
+        <v>-0.001770273504326211</v>
+      </c>
+      <c r="F26">
+        <v>0.001225825939659453</v>
+      </c>
+      <c r="G26">
+        <v>0.05910221893248336</v>
+      </c>
+      <c r="H26">
+        <v>0.01097832975356823</v>
+      </c>
+      <c r="I26">
+        <v>0.001225825939659453</v>
+      </c>
+      <c r="J26">
+        <v>1.608284682102103</v>
+      </c>
+      <c r="K26">
+        <v>0.001225825939659453</v>
+      </c>
+      <c r="L26">
+        <v>3.612049851910613</v>
+      </c>
+      <c r="M26">
+        <v>1.805139789203143</v>
+      </c>
+      <c r="N26">
+        <v>1.805139789203143</v>
+      </c>
+      <c r="O26">
+        <v>1.22312726577959</v>
+      </c>
+      <c r="P26">
+        <v>1.203835134781982</v>
+      </c>
+      <c r="Q26">
+        <v>1.203835134781982</v>
+      </c>
+      <c r="R26">
+        <v>0.9031828075714013</v>
+      </c>
+      <c r="S26">
+        <v>0.9031828075714013</v>
+      </c>
+      <c r="T26">
+        <v>0.8816451058556835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.00217959071571286</v>
+      </c>
+      <c r="D27">
+        <v>1.103159282324669</v>
+      </c>
+      <c r="E27">
+        <v>-0.00217959071571286</v>
+      </c>
+      <c r="F27">
+        <v>0.05923861290883356</v>
+      </c>
+      <c r="G27">
+        <v>0.1418032998295012</v>
+      </c>
+      <c r="H27">
+        <v>-0.001725540499156195</v>
+      </c>
+      <c r="I27">
+        <v>0.05923861290883356</v>
+      </c>
+      <c r="J27">
+        <v>1.442672675414377</v>
+      </c>
+      <c r="K27">
+        <v>0.05923861290883356</v>
+      </c>
+      <c r="L27">
+        <v>1.103159282324669</v>
+      </c>
+      <c r="M27">
+        <v>0.5504898458044782</v>
+      </c>
+      <c r="N27">
+        <v>0.5504898458044782</v>
+      </c>
+      <c r="O27">
+        <v>0.4142609971461526</v>
+      </c>
+      <c r="P27">
+        <v>0.3867394348392634</v>
+      </c>
+      <c r="Q27">
+        <v>0.3867394348392634</v>
+      </c>
+      <c r="R27">
+        <v>0.3048642293566559</v>
+      </c>
+      <c r="S27">
+        <v>0.3048642293566559</v>
+      </c>
+      <c r="T27">
+        <v>0.4571614565437519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.0291482007193027</v>
+      </c>
+      <c r="D28">
+        <v>0.5890834267922467</v>
+      </c>
+      <c r="E28">
+        <v>0.0291482007193027</v>
+      </c>
+      <c r="F28">
+        <v>0.4830043610260045</v>
+      </c>
+      <c r="G28">
+        <v>0.7202774920624645</v>
+      </c>
+      <c r="H28">
+        <v>0.004956016528977478</v>
+      </c>
+      <c r="I28">
+        <v>0.4830043610260045</v>
+      </c>
+      <c r="J28">
+        <v>1.178663877869634</v>
+      </c>
+      <c r="K28">
+        <v>0.4830043610260045</v>
+      </c>
+      <c r="L28">
+        <v>0.5890834267922467</v>
+      </c>
+      <c r="M28">
+        <v>0.3091158137557747</v>
+      </c>
+      <c r="N28">
+        <v>0.3091158137557747</v>
+      </c>
+      <c r="O28">
+        <v>0.4461697065246713</v>
+      </c>
+      <c r="P28">
+        <v>0.3670786628458513</v>
+      </c>
+      <c r="Q28">
+        <v>0.3670786628458513</v>
+      </c>
+      <c r="R28">
+        <v>0.3960600873908896</v>
+      </c>
+      <c r="S28">
+        <v>0.3960600873908896</v>
+      </c>
+      <c r="T28">
+        <v>0.5008555624997716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.05814132290523029</v>
+      </c>
+      <c r="D29">
+        <v>0.265446506192127</v>
+      </c>
+      <c r="E29">
+        <v>0.05814132290523029</v>
+      </c>
+      <c r="F29">
+        <v>1.086458161215768</v>
+      </c>
+      <c r="G29">
+        <v>1.617674642132961</v>
+      </c>
+      <c r="H29">
+        <v>0.003407190930690019</v>
+      </c>
+      <c r="I29">
+        <v>1.086458161215768</v>
+      </c>
+      <c r="J29">
+        <v>0.128740749018723</v>
+      </c>
+      <c r="K29">
+        <v>1.086458161215768</v>
+      </c>
+      <c r="L29">
+        <v>0.265446506192127</v>
+      </c>
+      <c r="M29">
+        <v>0.1617939145486786</v>
+      </c>
+      <c r="N29">
+        <v>0.1617939145486786</v>
+      </c>
+      <c r="O29">
+        <v>0.6470874904101062</v>
+      </c>
+      <c r="P29">
+        <v>0.4700153301043752</v>
+      </c>
+      <c r="Q29">
+        <v>0.4700153301043752</v>
+      </c>
+      <c r="R29">
+        <v>0.6241260378822234</v>
+      </c>
+      <c r="S29">
+        <v>0.6241260378822234</v>
+      </c>
+      <c r="T29">
+        <v>0.5266447620659167</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.851770008633595</v>
+        <v>0.7957456262983802</v>
       </c>
       <c r="D4">
-        <v>1.099222785315436</v>
+        <v>1.132082614007818</v>
       </c>
       <c r="E4">
-        <v>0.851770008633595</v>
+        <v>0.7957456262983802</v>
       </c>
       <c r="F4">
-        <v>0.9415517753992753</v>
+        <v>0.8319490128586602</v>
       </c>
       <c r="G4">
-        <v>0.7605759641556564</v>
+        <v>0.7951265739267214</v>
       </c>
       <c r="H4">
-        <v>2.012584438636983</v>
+        <v>1.352792255305642</v>
       </c>
       <c r="I4">
-        <v>0.9415517753992753</v>
+        <v>0.8319490128586602</v>
       </c>
       <c r="J4">
-        <v>0.9441926317649186</v>
+        <v>0.9786593773420734</v>
       </c>
       <c r="K4">
-        <v>0.9415517753992753</v>
+        <v>0.8319490128586602</v>
       </c>
       <c r="L4">
-        <v>1.099222785315436</v>
+        <v>1.132082614007818</v>
       </c>
       <c r="M4">
-        <v>0.9754963969745154</v>
+        <v>0.9639141201530991</v>
       </c>
       <c r="N4">
-        <v>0.9754963969745154</v>
+        <v>0.9639141201530991</v>
       </c>
       <c r="O4">
-        <v>0.9038562527015624</v>
+        <v>0.9076516047443065</v>
       </c>
       <c r="P4">
-        <v>0.9641815231161021</v>
+        <v>0.9199257510549529</v>
       </c>
       <c r="Q4">
-        <v>0.9641815231161021</v>
+        <v>0.9199257510549529</v>
       </c>
       <c r="R4">
-        <v>0.9585240861868953</v>
+        <v>0.8979315665058797</v>
       </c>
       <c r="S4">
-        <v>0.9585240861868953</v>
+        <v>0.8979315665058797</v>
       </c>
       <c r="T4">
-        <v>1.101649600650977</v>
+        <v>0.9810592432898826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7444249987458623</v>
+        <v>-0.001950943514471793</v>
       </c>
       <c r="D5">
-        <v>1.070003726847156</v>
+        <v>0.6635205264451761</v>
       </c>
       <c r="E5">
-        <v>0.7444249987458623</v>
+        <v>-0.001950943514471793</v>
       </c>
       <c r="F5">
-        <v>1.050030410236353</v>
+        <v>4.526962868560696</v>
       </c>
       <c r="G5">
-        <v>0.7439715252950169</v>
+        <v>-7.363109466156052E-06</v>
       </c>
       <c r="H5">
-        <v>1.264822229759062</v>
+        <v>0.001308232617048411</v>
       </c>
       <c r="I5">
-        <v>1.050030410236353</v>
+        <v>4.526962868560696</v>
       </c>
       <c r="J5">
-        <v>0.9389416985560169</v>
+        <v>0.9813294467299163</v>
       </c>
       <c r="K5">
-        <v>1.050030410236353</v>
+        <v>4.526962868560696</v>
       </c>
       <c r="L5">
-        <v>1.070003726847156</v>
+        <v>0.6635205264451761</v>
       </c>
       <c r="M5">
-        <v>0.907214362796509</v>
+        <v>0.3307847914653522</v>
       </c>
       <c r="N5">
-        <v>0.907214362796509</v>
+        <v>0.3307847914653522</v>
       </c>
       <c r="O5">
-        <v>0.852800083629345</v>
+        <v>0.2205207399404127</v>
       </c>
       <c r="P5">
-        <v>0.9548197119431237</v>
+        <v>1.7295108171638</v>
       </c>
       <c r="Q5">
-        <v>0.9548197119431237</v>
+        <v>1.7295108171638</v>
       </c>
       <c r="R5">
-        <v>0.978622386516431</v>
+        <v>2.428873830013024</v>
       </c>
       <c r="S5">
-        <v>0.978622386516431</v>
+        <v>2.428873830013024</v>
       </c>
       <c r="T5">
-        <v>0.9686990982399112</v>
+        <v>1.028527127954816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3973599036156725</v>
+        <v>0.851770008633595</v>
       </c>
       <c r="D6">
-        <v>0.5796003230327154</v>
+        <v>1.099222785315436</v>
       </c>
       <c r="E6">
-        <v>0.3973599036156725</v>
+        <v>0.851770008633595</v>
       </c>
       <c r="F6">
-        <v>0.4387715289477302</v>
+        <v>0.9415517753992753</v>
       </c>
       <c r="G6">
-        <v>0.3918337836049824</v>
+        <v>0.7605759641556564</v>
       </c>
       <c r="H6">
-        <v>0.6242358065958095</v>
+        <v>2.012584438636983</v>
       </c>
       <c r="I6">
-        <v>0.4387715289477302</v>
+        <v>0.9415517753992753</v>
       </c>
       <c r="J6">
-        <v>0.5257771154448309</v>
+        <v>0.9441926317649186</v>
       </c>
       <c r="K6">
-        <v>0.4387715289477302</v>
+        <v>0.9415517753992753</v>
       </c>
       <c r="L6">
-        <v>0.5796003230327154</v>
+        <v>1.099222785315436</v>
       </c>
       <c r="M6">
-        <v>0.4884801133241939</v>
+        <v>0.9754963969745154</v>
       </c>
       <c r="N6">
-        <v>0.4884801133241939</v>
+        <v>0.9754963969745154</v>
       </c>
       <c r="O6">
-        <v>0.4562646700844568</v>
+        <v>0.9038562527015624</v>
       </c>
       <c r="P6">
-        <v>0.471910585198706</v>
+        <v>0.9641815231161021</v>
       </c>
       <c r="Q6">
-        <v>0.471910585198706</v>
+        <v>0.9641815231161021</v>
       </c>
       <c r="R6">
-        <v>0.4636258211359621</v>
+        <v>0.9585240861868953</v>
       </c>
       <c r="S6">
-        <v>0.4636258211359621</v>
+        <v>0.9585240861868953</v>
       </c>
       <c r="T6">
-        <v>0.4929297435402901</v>
+        <v>1.101649600650977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9874950177581305</v>
+        <v>0.7444249987458623</v>
       </c>
       <c r="D7">
-        <v>0.9497891013710018</v>
+        <v>1.070003726847156</v>
       </c>
       <c r="E7">
-        <v>0.9874950177581305</v>
+        <v>0.7444249987458623</v>
       </c>
       <c r="F7">
-        <v>1.143788000433847</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="G7">
-        <v>0.9210405441788202</v>
+        <v>0.7439715252950169</v>
       </c>
       <c r="H7">
-        <v>1.006201098865553</v>
+        <v>1.264822229759062</v>
       </c>
       <c r="I7">
-        <v>1.143788000433847</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="J7">
-        <v>0.9690388322409507</v>
+        <v>0.9389416985560169</v>
       </c>
       <c r="K7">
-        <v>1.143788000433847</v>
+        <v>1.050030410236353</v>
       </c>
       <c r="L7">
-        <v>0.9497891013710018</v>
+        <v>1.070003726847156</v>
       </c>
       <c r="M7">
-        <v>0.9686420595645662</v>
+        <v>0.907214362796509</v>
       </c>
       <c r="N7">
-        <v>0.9686420595645662</v>
+        <v>0.907214362796509</v>
       </c>
       <c r="O7">
-        <v>0.9527748877693175</v>
+        <v>0.852800083629345</v>
       </c>
       <c r="P7">
-        <v>1.027024039854326</v>
+        <v>0.9548197119431237</v>
       </c>
       <c r="Q7">
-        <v>1.027024039854326</v>
+        <v>0.9548197119431237</v>
       </c>
       <c r="R7">
-        <v>1.056215029999207</v>
+        <v>0.978622386516431</v>
       </c>
       <c r="S7">
-        <v>1.056215029999207</v>
+        <v>0.978622386516431</v>
       </c>
       <c r="T7">
-        <v>0.9962254324747173</v>
+        <v>0.9686990982399112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.01941691864693</v>
+        <v>0.3973599036156725</v>
       </c>
       <c r="D8">
-        <v>1.015786721213073</v>
+        <v>0.5796003230327154</v>
       </c>
       <c r="E8">
-        <v>1.01941691864693</v>
+        <v>0.3973599036156725</v>
       </c>
       <c r="F8">
-        <v>1.123990509764879</v>
+        <v>0.4387715289477302</v>
       </c>
       <c r="G8">
-        <v>0.9427738294905212</v>
+        <v>0.3918337836049824</v>
       </c>
       <c r="H8">
-        <v>1.05729744450234</v>
+        <v>0.6242358065958095</v>
       </c>
       <c r="I8">
-        <v>1.123990509764879</v>
+        <v>0.4387715289477302</v>
       </c>
       <c r="J8">
-        <v>0.9839700539437775</v>
+        <v>0.5257771154448309</v>
       </c>
       <c r="K8">
-        <v>1.123990509764879</v>
+        <v>0.4387715289477302</v>
       </c>
       <c r="L8">
-        <v>1.015786721213073</v>
+        <v>0.5796003230327154</v>
       </c>
       <c r="M8">
-        <v>1.017601819930001</v>
+        <v>0.4884801133241939</v>
       </c>
       <c r="N8">
-        <v>1.017601819930001</v>
+        <v>0.4884801133241939</v>
       </c>
       <c r="O8">
-        <v>0.9926591564501747</v>
+        <v>0.4562646700844568</v>
       </c>
       <c r="P8">
-        <v>1.053064716541627</v>
+        <v>0.471910585198706</v>
       </c>
       <c r="Q8">
-        <v>1.053064716541627</v>
+        <v>0.471910585198706</v>
       </c>
       <c r="R8">
-        <v>1.07079616484744</v>
+        <v>0.4636258211359621</v>
       </c>
       <c r="S8">
-        <v>1.07079616484744</v>
+        <v>0.4636258211359621</v>
       </c>
       <c r="T8">
-        <v>1.023872579593587</v>
+        <v>0.4929297435402901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7339431852706018</v>
+        <v>0.9874950177581305</v>
       </c>
       <c r="D9">
-        <v>0.7766450933924975</v>
+        <v>0.9497891013710018</v>
       </c>
       <c r="E9">
-        <v>0.7339431852706018</v>
+        <v>0.9874950177581305</v>
       </c>
       <c r="F9">
-        <v>1.541790846071245</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="G9">
-        <v>0.8206173093207475</v>
+        <v>0.9210405441788202</v>
       </c>
       <c r="H9">
-        <v>0.9689627888128046</v>
+        <v>1.006201098865553</v>
       </c>
       <c r="I9">
-        <v>1.541790846071245</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="J9">
-        <v>0.8735476757343285</v>
+        <v>0.9690388322409507</v>
       </c>
       <c r="K9">
-        <v>1.541790846071245</v>
+        <v>1.143788000433847</v>
       </c>
       <c r="L9">
-        <v>0.7766450933924975</v>
+        <v>0.9497891013710018</v>
       </c>
       <c r="M9">
-        <v>0.7552941393315497</v>
+        <v>0.9686420595645662</v>
       </c>
       <c r="N9">
-        <v>0.7552941393315497</v>
+        <v>0.9686420595645662</v>
       </c>
       <c r="O9">
-        <v>0.7770685293279489</v>
+        <v>0.9527748877693175</v>
       </c>
       <c r="P9">
-        <v>1.017459708244781</v>
+        <v>1.027024039854326</v>
       </c>
       <c r="Q9">
-        <v>1.017459708244781</v>
+        <v>1.027024039854326</v>
       </c>
       <c r="R9">
-        <v>1.148542492701397</v>
+        <v>1.056215029999207</v>
       </c>
       <c r="S9">
-        <v>1.148542492701397</v>
+        <v>1.056215029999207</v>
       </c>
       <c r="T9">
-        <v>0.9525844831003707</v>
+        <v>0.9962254324747173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.3632351708199228</v>
+        <v>1.01941691864693</v>
       </c>
       <c r="D10">
-        <v>0.5960404856187477</v>
+        <v>1.015786721213073</v>
       </c>
       <c r="E10">
-        <v>0.3632351708199228</v>
+        <v>1.01941691864693</v>
       </c>
       <c r="F10">
-        <v>0.4035575041013881</v>
+        <v>1.123990509764879</v>
       </c>
       <c r="G10">
-        <v>0.4119837329990598</v>
+        <v>0.9427738294905212</v>
       </c>
       <c r="H10">
-        <v>0.593538398789891</v>
+        <v>1.05729744450234</v>
       </c>
       <c r="I10">
-        <v>0.4035575041013881</v>
+        <v>1.123990509764879</v>
       </c>
       <c r="J10">
-        <v>0.4803117188764396</v>
+        <v>0.9839700539437775</v>
       </c>
       <c r="K10">
-        <v>0.4035575041013881</v>
+        <v>1.123990509764879</v>
       </c>
       <c r="L10">
-        <v>0.5960404856187477</v>
+        <v>1.015786721213073</v>
       </c>
       <c r="M10">
-        <v>0.4796378282193352</v>
+        <v>1.017601819930001</v>
       </c>
       <c r="N10">
-        <v>0.4796378282193352</v>
+        <v>1.017601819930001</v>
       </c>
       <c r="O10">
-        <v>0.4570864631459101</v>
+        <v>0.9926591564501747</v>
       </c>
       <c r="P10">
-        <v>0.4542777201800195</v>
+        <v>1.053064716541627</v>
       </c>
       <c r="Q10">
-        <v>0.4542777201800196</v>
+        <v>1.053064716541627</v>
       </c>
       <c r="R10">
-        <v>0.4415976661603617</v>
+        <v>1.07079616484744</v>
       </c>
       <c r="S10">
-        <v>0.4415976661603617</v>
+        <v>1.07079616484744</v>
       </c>
       <c r="T10">
-        <v>0.4747778352009082</v>
+        <v>1.023872579593587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.74067024337197</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="D11">
-        <v>0.973304133046064</v>
+        <v>0.7766450933924975</v>
       </c>
       <c r="E11">
-        <v>0.74067024337197</v>
+        <v>0.7339431852706018</v>
       </c>
       <c r="F11">
-        <v>1.029206289541799</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="G11">
-        <v>0.768719938411162</v>
+        <v>0.8206173093207475</v>
       </c>
       <c r="H11">
-        <v>1.520558247123595</v>
+        <v>0.9689627888128046</v>
       </c>
       <c r="I11">
-        <v>1.029206289541799</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="J11">
-        <v>1.0033437919844</v>
+        <v>0.8735476757343285</v>
       </c>
       <c r="K11">
-        <v>1.029206289541799</v>
+        <v>1.541790846071245</v>
       </c>
       <c r="L11">
-        <v>0.973304133046064</v>
+        <v>0.7766450933924975</v>
       </c>
       <c r="M11">
-        <v>0.856987188209017</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="N11">
-        <v>0.856987188209017</v>
+        <v>0.7552941393315497</v>
       </c>
       <c r="O11">
-        <v>0.827564771609732</v>
+        <v>0.7770685293279489</v>
       </c>
       <c r="P11">
-        <v>0.9143935553199443</v>
+        <v>1.017459708244781</v>
       </c>
       <c r="Q11">
-        <v>0.9143935553199444</v>
+        <v>1.017459708244781</v>
       </c>
       <c r="R11">
-        <v>0.9430967388754081</v>
+        <v>1.148542492701397</v>
       </c>
       <c r="S11">
-        <v>0.9430967388754081</v>
+        <v>1.148542492701397</v>
       </c>
       <c r="T11">
-        <v>1.005967107246498</v>
+        <v>0.9525844831003707</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9848198563147745</v>
+        <v>0.3632351708199228</v>
       </c>
       <c r="D12">
-        <v>1.173255566196131</v>
+        <v>0.5960404856187477</v>
       </c>
       <c r="E12">
-        <v>0.9848198563147745</v>
+        <v>0.3632351708199228</v>
       </c>
       <c r="F12">
-        <v>0.7711332520430405</v>
+        <v>0.4035575041013881</v>
       </c>
       <c r="G12">
-        <v>0.7934317811215479</v>
+        <v>0.4119837329990598</v>
       </c>
       <c r="H12">
-        <v>1.139093545399441</v>
+        <v>0.593538398789891</v>
       </c>
       <c r="I12">
-        <v>0.7711332520430405</v>
+        <v>0.4035575041013881</v>
       </c>
       <c r="J12">
-        <v>0.8831179935072694</v>
+        <v>0.4803117188764396</v>
       </c>
       <c r="K12">
-        <v>0.7711332520430405</v>
+        <v>0.4035575041013881</v>
       </c>
       <c r="L12">
-        <v>1.173255566196131</v>
+        <v>0.5960404856187477</v>
       </c>
       <c r="M12">
-        <v>1.079037711255453</v>
+        <v>0.4796378282193352</v>
       </c>
       <c r="N12">
-        <v>1.079037711255453</v>
+        <v>0.4796378282193352</v>
       </c>
       <c r="O12">
-        <v>0.9838357345441513</v>
+        <v>0.4570864631459101</v>
       </c>
       <c r="P12">
-        <v>0.9764028915179822</v>
+        <v>0.4542777201800195</v>
       </c>
       <c r="Q12">
-        <v>0.9764028915179822</v>
+        <v>0.4542777201800196</v>
       </c>
       <c r="R12">
-        <v>0.9250854816492468</v>
+        <v>0.4415976661603617</v>
       </c>
       <c r="S12">
-        <v>0.9250854816492468</v>
+        <v>0.4415976661603617</v>
       </c>
       <c r="T12">
-        <v>0.9574753324303674</v>
+        <v>0.4747778352009082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.562719062172242</v>
+        <v>0.74067024337197</v>
       </c>
       <c r="D13">
-        <v>0.8818969698062644</v>
+        <v>0.973304133046064</v>
       </c>
       <c r="E13">
-        <v>1.562719062172242</v>
+        <v>0.74067024337197</v>
       </c>
       <c r="F13">
-        <v>1.0350615298997</v>
+        <v>1.029206289541799</v>
       </c>
       <c r="G13">
-        <v>1.130478668372556</v>
+        <v>0.768719938411162</v>
       </c>
       <c r="H13">
-        <v>0.5525545378497957</v>
+        <v>1.520558247123595</v>
       </c>
       <c r="I13">
-        <v>1.0350615298997</v>
+        <v>1.029206289541799</v>
       </c>
       <c r="J13">
-        <v>0.8815961479472589</v>
+        <v>1.0033437919844</v>
       </c>
       <c r="K13">
-        <v>1.0350615298997</v>
+        <v>1.029206289541799</v>
       </c>
       <c r="L13">
-        <v>0.8818969698062644</v>
+        <v>0.973304133046064</v>
       </c>
       <c r="M13">
-        <v>1.222308015989253</v>
+        <v>0.856987188209017</v>
       </c>
       <c r="N13">
-        <v>1.222308015989253</v>
+        <v>0.856987188209017</v>
       </c>
       <c r="O13">
-        <v>1.191698233450355</v>
+        <v>0.827564771609732</v>
       </c>
       <c r="P13">
-        <v>1.159892520626069</v>
+        <v>0.9143935553199443</v>
       </c>
       <c r="Q13">
-        <v>1.159892520626069</v>
+        <v>0.9143935553199444</v>
       </c>
       <c r="R13">
-        <v>1.128684772944476</v>
+        <v>0.9430967388754081</v>
       </c>
       <c r="S13">
-        <v>1.128684772944476</v>
+        <v>0.9430967388754081</v>
       </c>
       <c r="T13">
-        <v>1.007384486007969</v>
+        <v>1.005967107246498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.008040382100000009</v>
+        <v>0.9848198563147745</v>
       </c>
       <c r="D14">
-        <v>0.008483182300000001</v>
+        <v>1.173255566196131</v>
       </c>
       <c r="E14">
-        <v>-0.008040382100000009</v>
+        <v>0.9848198563147745</v>
       </c>
       <c r="F14">
-        <v>-0.01446468899999998</v>
+        <v>0.7711332520430405</v>
       </c>
       <c r="G14">
-        <v>-0.001910201400000003</v>
+        <v>0.7934317811215479</v>
       </c>
       <c r="H14">
-        <v>-0.05284161199999995</v>
+        <v>1.139093545399441</v>
       </c>
       <c r="I14">
-        <v>-0.01446468899999998</v>
+        <v>0.7711332520430405</v>
       </c>
       <c r="J14">
-        <v>0.03105051000000002</v>
+        <v>0.8831179935072694</v>
       </c>
       <c r="K14">
-        <v>-0.01446468899999998</v>
+        <v>0.7711332520430405</v>
       </c>
       <c r="L14">
-        <v>0.008483182300000001</v>
+        <v>1.173255566196131</v>
       </c>
       <c r="M14">
-        <v>0.0002214000999999962</v>
+        <v>1.079037711255453</v>
       </c>
       <c r="N14">
-        <v>0.0002214000999999962</v>
+        <v>1.079037711255453</v>
       </c>
       <c r="O14">
-        <v>-0.0004891337333333368</v>
+        <v>0.9838357345441513</v>
       </c>
       <c r="P14">
-        <v>-0.00467396293333333</v>
+        <v>0.9764028915179822</v>
       </c>
       <c r="Q14">
-        <v>-0.004673962933333329</v>
+        <v>0.9764028915179822</v>
       </c>
       <c r="R14">
-        <v>-0.007121644449999992</v>
+        <v>0.9250854816492468</v>
       </c>
       <c r="S14">
-        <v>-0.007121644449999992</v>
+        <v>0.9250854816492468</v>
       </c>
       <c r="T14">
-        <v>-0.006287198699999989</v>
+        <v>0.9574753324303674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.00070900843</v>
+        <v>1.562719062172242</v>
       </c>
       <c r="D15">
-        <v>-0.012240956</v>
+        <v>0.8818969698062644</v>
       </c>
       <c r="E15">
-        <v>0.00070900843</v>
+        <v>1.562719062172242</v>
       </c>
       <c r="F15">
-        <v>121.14151</v>
+        <v>1.0350615298997</v>
       </c>
       <c r="G15">
-        <v>-0.0017802751</v>
+        <v>1.130478668372556</v>
       </c>
       <c r="H15">
-        <v>0.010282672</v>
+        <v>0.5525545378497957</v>
       </c>
       <c r="I15">
-        <v>121.14151</v>
+        <v>1.0350615298997</v>
       </c>
       <c r="J15">
-        <v>-0.0067091534</v>
+        <v>0.8815961479472589</v>
       </c>
       <c r="K15">
-        <v>121.14151</v>
+        <v>1.0350615298997</v>
       </c>
       <c r="L15">
-        <v>-0.012240956</v>
+        <v>0.8818969698062644</v>
       </c>
       <c r="M15">
-        <v>-0.005765973785000001</v>
+        <v>1.222308015989253</v>
       </c>
       <c r="N15">
-        <v>-0.005765973785000001</v>
+        <v>1.222308015989253</v>
       </c>
       <c r="O15">
-        <v>-0.004437407556666668</v>
+        <v>1.191698233450355</v>
       </c>
       <c r="P15">
-        <v>40.37665935080999</v>
+        <v>1.159892520626069</v>
       </c>
       <c r="Q15">
-        <v>40.37665935080999</v>
+        <v>1.159892520626069</v>
       </c>
       <c r="R15">
-        <v>60.5678720131075</v>
+        <v>1.128684772944476</v>
       </c>
       <c r="S15">
-        <v>60.5678720131075</v>
+        <v>1.128684772944476</v>
       </c>
       <c r="T15">
-        <v>20.18862854932167</v>
+        <v>1.007384486007969</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.013806896</v>
+        <v>-0.008040382100000009</v>
       </c>
       <c r="D16">
-        <v>-0.0020169837</v>
+        <v>0.008483182300000001</v>
       </c>
       <c r="E16">
-        <v>0.013806896</v>
+        <v>-0.008040382100000009</v>
       </c>
       <c r="F16">
-        <v>0.020769666</v>
+        <v>-0.01446468899999998</v>
       </c>
       <c r="G16">
-        <v>-0.0007488457399999999</v>
+        <v>-0.001910201400000003</v>
       </c>
       <c r="H16">
-        <v>0.09509169100000001</v>
+        <v>-0.05284161199999995</v>
       </c>
       <c r="I16">
-        <v>0.020769666</v>
+        <v>-0.01446468899999998</v>
       </c>
       <c r="J16">
-        <v>-0.009177290499999999</v>
+        <v>0.03105051000000002</v>
       </c>
       <c r="K16">
-        <v>0.020769666</v>
+        <v>-0.01446468899999998</v>
       </c>
       <c r="L16">
-        <v>-0.0020169837</v>
+        <v>0.008483182300000001</v>
       </c>
       <c r="M16">
-        <v>0.005894956150000001</v>
+        <v>0.0002214000999999962</v>
       </c>
       <c r="N16">
-        <v>0.005894956150000001</v>
+        <v>0.0002214000999999962</v>
       </c>
       <c r="O16">
-        <v>0.003680355520000001</v>
+        <v>-0.0004891337333333368</v>
       </c>
       <c r="P16">
-        <v>0.01085319276666667</v>
+        <v>-0.00467396293333333</v>
       </c>
       <c r="Q16">
-        <v>0.01085319276666667</v>
+        <v>-0.004673962933333329</v>
       </c>
       <c r="R16">
-        <v>0.013332311075</v>
+        <v>-0.007121644449999992</v>
       </c>
       <c r="S16">
-        <v>0.013332311075</v>
+        <v>-0.007121644449999992</v>
       </c>
       <c r="T16">
-        <v>0.01962085551</v>
+        <v>-0.006287198699999989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.014314704</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D17">
-        <v>-0.0037164054</v>
+        <v>-0.012240956</v>
       </c>
       <c r="E17">
-        <v>0.014314704</v>
+        <v>0.00070900843</v>
       </c>
       <c r="F17">
-        <v>0.0056704641</v>
+        <v>121.14151</v>
       </c>
       <c r="G17">
-        <v>0.021292689</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="H17">
-        <v>-0.00055904866</v>
+        <v>0.010282672</v>
       </c>
       <c r="I17">
-        <v>0.0056704641</v>
+        <v>121.14151</v>
       </c>
       <c r="J17">
-        <v>-0.0092627588</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="K17">
-        <v>0.0056704641</v>
+        <v>121.14151</v>
       </c>
       <c r="L17">
-        <v>-0.0037164054</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M17">
-        <v>0.0052991493</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N17">
-        <v>0.0052991493</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O17">
-        <v>0.0106303292</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P17">
-        <v>0.0054229209</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q17">
-        <v>0.005422920899999999</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R17">
-        <v>0.005484806699999999</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S17">
-        <v>0.005484806699999999</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T17">
-        <v>0.00462327404</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.001119992401232877</v>
+        <v>0.013806896</v>
       </c>
       <c r="D18">
-        <v>0.1028733996241096</v>
+        <v>-0.0020169837</v>
       </c>
       <c r="E18">
-        <v>0.001119992401232877</v>
+        <v>0.013806896</v>
       </c>
       <c r="F18">
-        <v>5.395430887254794</v>
+        <v>0.020769666</v>
       </c>
       <c r="G18">
-        <v>-0.001354962142191781</v>
+        <v>-0.0007488457399999999</v>
       </c>
       <c r="H18">
-        <v>0.009088114710136987</v>
+        <v>0.09509169100000001</v>
       </c>
       <c r="I18">
-        <v>5.395430887254794</v>
+        <v>0.020769666</v>
       </c>
       <c r="J18">
-        <v>0.3859526074441095</v>
+        <v>-0.009177290499999999</v>
       </c>
       <c r="K18">
-        <v>5.395430887254794</v>
+        <v>0.020769666</v>
       </c>
       <c r="L18">
-        <v>0.1028733996241096</v>
+        <v>-0.0020169837</v>
       </c>
       <c r="M18">
-        <v>0.05199669601267123</v>
+        <v>0.005894956150000001</v>
       </c>
       <c r="N18">
-        <v>0.05199669601267123</v>
+        <v>0.005894956150000001</v>
       </c>
       <c r="O18">
-        <v>0.03421280996105022</v>
+        <v>0.003680355520000001</v>
       </c>
       <c r="P18">
-        <v>1.833141426426712</v>
+        <v>0.01085319276666667</v>
       </c>
       <c r="Q18">
-        <v>1.833141426426712</v>
+        <v>0.01085319276666667</v>
       </c>
       <c r="R18">
-        <v>2.723713791633733</v>
+        <v>0.013332311075</v>
       </c>
       <c r="S18">
-        <v>2.723713791633733</v>
+        <v>0.013332311075</v>
       </c>
       <c r="T18">
-        <v>0.9821850065486987</v>
+        <v>0.01962085551</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.601762195012631</v>
+        <v>0.014314704</v>
       </c>
       <c r="D19">
-        <v>3.309808958957896</v>
+        <v>-0.0037164054</v>
       </c>
       <c r="E19">
-        <v>6.601762195012631</v>
+        <v>0.014314704</v>
       </c>
       <c r="F19">
-        <v>3.303448206222105</v>
+        <v>0.0056704641</v>
       </c>
       <c r="G19">
-        <v>0.0008476968221052631</v>
+        <v>0.021292689</v>
       </c>
       <c r="H19">
-        <v>9.923039998606319</v>
+        <v>-0.00055904866</v>
       </c>
       <c r="I19">
-        <v>3.303448206222105</v>
+        <v>0.0056704641</v>
       </c>
       <c r="J19">
-        <v>-0.0005138362684210517</v>
+        <v>-0.0092627588</v>
       </c>
       <c r="K19">
-        <v>3.303448206222105</v>
+        <v>0.0056704641</v>
       </c>
       <c r="L19">
-        <v>3.309808958957896</v>
+        <v>-0.0037164054</v>
       </c>
       <c r="M19">
-        <v>4.955785576985264</v>
+        <v>0.0052991493</v>
       </c>
       <c r="N19">
-        <v>4.955785576985264</v>
+        <v>0.0052991493</v>
       </c>
       <c r="O19">
-        <v>3.304139616930878</v>
+        <v>0.0106303292</v>
       </c>
       <c r="P19">
-        <v>4.405006453397544</v>
+        <v>0.0054229209</v>
       </c>
       <c r="Q19">
-        <v>4.405006453397544</v>
+        <v>0.005422920899999999</v>
       </c>
       <c r="R19">
-        <v>4.129616891603684</v>
+        <v>0.005484806699999999</v>
       </c>
       <c r="S19">
-        <v>4.129616891603684</v>
+        <v>0.005484806699999999</v>
       </c>
       <c r="T19">
-        <v>3.856398869892105</v>
+        <v>0.00462327404</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>-0.00226567923368421</v>
+        <v>0.001119992401232877</v>
       </c>
       <c r="D20">
-        <v>0.6001760884957894</v>
+        <v>0.1028733996241096</v>
       </c>
       <c r="E20">
-        <v>-0.00226567923368421</v>
+        <v>0.001119992401232877</v>
       </c>
       <c r="F20">
-        <v>6.808443637733157</v>
+        <v>5.395430887254794</v>
       </c>
       <c r="G20">
-        <v>-0.0003304021682105264</v>
+        <v>-0.001354962142191781</v>
       </c>
       <c r="H20">
-        <v>-0.001091404752105262</v>
+        <v>0.009088114710136987</v>
       </c>
       <c r="I20">
-        <v>6.808443637733157</v>
+        <v>5.395430887254794</v>
       </c>
       <c r="J20">
-        <v>0.8881698705147368</v>
+        <v>0.3859526074441095</v>
       </c>
       <c r="K20">
-        <v>6.808443637733157</v>
+        <v>5.395430887254794</v>
       </c>
       <c r="L20">
-        <v>0.6001760884957894</v>
+        <v>0.1028733996241096</v>
       </c>
       <c r="M20">
-        <v>0.2989552046310526</v>
+        <v>0.05199669601267123</v>
       </c>
       <c r="N20">
-        <v>0.2989552046310526</v>
+        <v>0.05199669601267123</v>
       </c>
       <c r="O20">
-        <v>0.1991933356979649</v>
+        <v>0.03421280996105022</v>
       </c>
       <c r="P20">
-        <v>2.468784682331754</v>
+        <v>1.833141426426712</v>
       </c>
       <c r="Q20">
-        <v>2.468784682331755</v>
+        <v>1.833141426426712</v>
       </c>
       <c r="R20">
-        <v>3.553699421182105</v>
+        <v>2.723713791633733</v>
       </c>
       <c r="S20">
-        <v>3.553699421182105</v>
+        <v>2.723713791633733</v>
       </c>
       <c r="T20">
-        <v>1.382183685098281</v>
+        <v>0.9821850065486987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>4.068226629054021</v>
+        <v>6.601762195012631</v>
       </c>
       <c r="D21">
-        <v>0.003295046003179265</v>
+        <v>3.309808958957896</v>
       </c>
       <c r="E21">
-        <v>4.068226629054021</v>
+        <v>6.601762195012631</v>
       </c>
       <c r="F21">
-        <v>2.458858903566748</v>
+        <v>3.303448206222105</v>
       </c>
       <c r="G21">
-        <v>2.391910056070606</v>
+        <v>0.0008476968221052631</v>
       </c>
       <c r="H21">
-        <v>0.001614953990954686</v>
+        <v>9.923039998606319</v>
       </c>
       <c r="I21">
-        <v>2.458858903566748</v>
+        <v>3.303448206222105</v>
       </c>
       <c r="J21">
-        <v>1.827543285215588</v>
+        <v>-0.0005138362684210517</v>
       </c>
       <c r="K21">
-        <v>2.458858903566748</v>
+        <v>3.303448206222105</v>
       </c>
       <c r="L21">
-        <v>0.003295046003179265</v>
+        <v>3.309808958957896</v>
       </c>
       <c r="M21">
-        <v>2.0357608375286</v>
+        <v>4.955785576985264</v>
       </c>
       <c r="N21">
-        <v>2.0357608375286</v>
+        <v>4.955785576985264</v>
       </c>
       <c r="O21">
-        <v>2.154477243709269</v>
+        <v>3.304139616930878</v>
       </c>
       <c r="P21">
-        <v>2.176793526207983</v>
+        <v>4.405006453397544</v>
       </c>
       <c r="Q21">
-        <v>2.176793526207983</v>
+        <v>4.405006453397544</v>
       </c>
       <c r="R21">
-        <v>2.247309870547674</v>
+        <v>4.129616891603684</v>
       </c>
       <c r="S21">
-        <v>2.247309870547674</v>
+        <v>4.129616891603684</v>
       </c>
       <c r="T21">
-        <v>1.791908145650183</v>
+        <v>3.856398869892105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.002805162182525607</v>
+        <v>-0.00226567923368421</v>
       </c>
       <c r="D22">
-        <v>1.084848418353441</v>
+        <v>0.6001760884957894</v>
       </c>
       <c r="E22">
-        <v>-0.002805162182525607</v>
+        <v>-0.00226567923368421</v>
       </c>
       <c r="F22">
-        <v>0.001299449148443353</v>
+        <v>6.808443637733157</v>
       </c>
       <c r="G22">
-        <v>2.009429656241364</v>
+        <v>-0.0003304021682105264</v>
       </c>
       <c r="H22">
-        <v>2.028399283513613</v>
+        <v>-0.001091404752105262</v>
       </c>
       <c r="I22">
-        <v>0.001299449148443353</v>
+        <v>6.808443637733157</v>
       </c>
       <c r="J22">
-        <v>0.7074621696031547</v>
+        <v>0.8881698705147368</v>
       </c>
       <c r="K22">
-        <v>0.001299449148443353</v>
+        <v>6.808443637733157</v>
       </c>
       <c r="L22">
-        <v>1.084848418353441</v>
+        <v>0.6001760884957894</v>
       </c>
       <c r="M22">
-        <v>0.5410216280854578</v>
+        <v>0.2989552046310526</v>
       </c>
       <c r="N22">
-        <v>0.5410216280854578</v>
+        <v>0.2989552046310526</v>
       </c>
       <c r="O22">
-        <v>1.030490970804093</v>
+        <v>0.1991933356979649</v>
       </c>
       <c r="P22">
-        <v>0.361114235106453</v>
+        <v>2.468784682331754</v>
       </c>
       <c r="Q22">
-        <v>0.361114235106453</v>
+        <v>2.468784682331755</v>
       </c>
       <c r="R22">
-        <v>0.2711605386169506</v>
+        <v>3.553699421182105</v>
       </c>
       <c r="S22">
-        <v>0.2711605386169506</v>
+        <v>3.553699421182105</v>
       </c>
       <c r="T22">
-        <v>0.9714389691129149</v>
+        <v>1.382183685098281</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.001214817681315028</v>
+        <v>4.068226629054021</v>
       </c>
       <c r="D23">
-        <v>1.123557152391315</v>
+        <v>0.003295046003179265</v>
       </c>
       <c r="E23">
-        <v>0.001214817681315028</v>
+        <v>4.068226629054021</v>
       </c>
       <c r="F23">
-        <v>0.3015964858162223</v>
+        <v>2.458858903566748</v>
       </c>
       <c r="G23">
-        <v>2.050607645032628</v>
+        <v>2.391910056070606</v>
       </c>
       <c r="H23">
-        <v>0.002872278369960734</v>
+        <v>0.001614953990954686</v>
       </c>
       <c r="I23">
-        <v>0.3015964858162223</v>
+        <v>2.458858903566748</v>
       </c>
       <c r="J23">
-        <v>2.312062175003153</v>
+        <v>1.827543285215588</v>
       </c>
       <c r="K23">
-        <v>0.3015964858162223</v>
+        <v>2.458858903566748</v>
       </c>
       <c r="L23">
-        <v>1.123557152391315</v>
+        <v>0.003295046003179265</v>
       </c>
       <c r="M23">
-        <v>0.5623859850363149</v>
+        <v>2.0357608375286</v>
       </c>
       <c r="N23">
-        <v>0.5623859850363149</v>
+        <v>2.0357608375286</v>
       </c>
       <c r="O23">
-        <v>1.058459871701752</v>
+        <v>2.154477243709269</v>
       </c>
       <c r="P23">
-        <v>0.4754561519629507</v>
+        <v>2.176793526207983</v>
       </c>
       <c r="Q23">
-        <v>0.4754561519629507</v>
+        <v>2.176793526207983</v>
       </c>
       <c r="R23">
-        <v>0.4319912354262686</v>
+        <v>2.247309870547674</v>
       </c>
       <c r="S23">
-        <v>0.4319912354262686</v>
+        <v>2.247309870547674</v>
       </c>
       <c r="T23">
-        <v>0.9653184257157656</v>
+        <v>1.791908145650183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4.775620040547367</v>
+        <v>-0.002805162182525607</v>
       </c>
       <c r="D24">
-        <v>0.3136805992314787</v>
+        <v>1.084848418353441</v>
       </c>
       <c r="E24">
-        <v>4.775620040547367</v>
+        <v>-0.002805162182525607</v>
       </c>
       <c r="F24">
-        <v>0.4066822807472751</v>
+        <v>0.001299449148443353</v>
       </c>
       <c r="G24">
-        <v>0.2960677502347535</v>
+        <v>2.009429656241364</v>
       </c>
       <c r="H24">
-        <v>1.585107506038629</v>
+        <v>2.028399283513613</v>
       </c>
       <c r="I24">
-        <v>0.4066822807472751</v>
+        <v>0.001299449148443353</v>
       </c>
       <c r="J24">
-        <v>0.4977431786562403</v>
+        <v>0.7074621696031547</v>
       </c>
       <c r="K24">
-        <v>0.4066822807472751</v>
+        <v>0.001299449148443353</v>
       </c>
       <c r="L24">
-        <v>0.3136805992314787</v>
+        <v>1.084848418353441</v>
       </c>
       <c r="M24">
-        <v>2.544650319889423</v>
+        <v>0.5410216280854578</v>
       </c>
       <c r="N24">
-        <v>2.544650319889423</v>
+        <v>0.5410216280854578</v>
       </c>
       <c r="O24">
-        <v>1.7951227966712</v>
+        <v>1.030490970804093</v>
       </c>
       <c r="P24">
-        <v>1.83199430684204</v>
+        <v>0.361114235106453</v>
       </c>
       <c r="Q24">
-        <v>1.83199430684204</v>
+        <v>0.361114235106453</v>
       </c>
       <c r="R24">
-        <v>1.475666300318349</v>
+        <v>0.2711605386169506</v>
       </c>
       <c r="S24">
-        <v>1.475666300318349</v>
+        <v>0.2711605386169506</v>
       </c>
       <c r="T24">
-        <v>1.312483559242624</v>
+        <v>0.9714389691129149</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.002392685105947902</v>
+        <v>0.001214817681315028</v>
       </c>
       <c r="D25">
-        <v>-0.0003878714882696759</v>
+        <v>1.123557152391315</v>
       </c>
       <c r="E25">
-        <v>0.002392685105947902</v>
+        <v>0.001214817681315028</v>
       </c>
       <c r="F25">
-        <v>2.946005160007666</v>
+        <v>0.3015964858162223</v>
       </c>
       <c r="G25">
-        <v>0.2609892138200792</v>
+        <v>2.050607645032628</v>
       </c>
       <c r="H25">
-        <v>0.0005097315444593208</v>
+        <v>0.002872278369960734</v>
       </c>
       <c r="I25">
-        <v>2.946005160007666</v>
+        <v>0.3015964858162223</v>
       </c>
       <c r="J25">
-        <v>1.093400606310508</v>
+        <v>2.312062175003153</v>
       </c>
       <c r="K25">
-        <v>2.946005160007666</v>
+        <v>0.3015964858162223</v>
       </c>
       <c r="L25">
-        <v>-0.0003878714882696759</v>
+        <v>1.123557152391315</v>
       </c>
       <c r="M25">
-        <v>0.001002406808839113</v>
+        <v>0.5623859850363149</v>
       </c>
       <c r="N25">
-        <v>0.001002406808839113</v>
+        <v>0.5623859850363149</v>
       </c>
       <c r="O25">
-        <v>0.0876646758125858</v>
+        <v>1.058459871701752</v>
       </c>
       <c r="P25">
-        <v>0.9826699912084481</v>
+        <v>0.4754561519629507</v>
       </c>
       <c r="Q25">
-        <v>0.9826699912084482</v>
+        <v>0.4754561519629507</v>
       </c>
       <c r="R25">
-        <v>1.473503783408253</v>
+        <v>0.4319912354262686</v>
       </c>
       <c r="S25">
-        <v>1.473503783408253</v>
+        <v>0.4319912354262686</v>
       </c>
       <c r="T25">
-        <v>0.7171515875500653</v>
+        <v>0.9653184257157656</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-0.001770273504326211</v>
+        <v>4.775620040547367</v>
       </c>
       <c r="D26">
-        <v>3.612049851910613</v>
+        <v>0.3136805992314787</v>
       </c>
       <c r="E26">
-        <v>-0.001770273504326211</v>
+        <v>4.775620040547367</v>
       </c>
       <c r="F26">
-        <v>0.001225825939659453</v>
+        <v>0.4066822807472751</v>
       </c>
       <c r="G26">
-        <v>0.05910221893248336</v>
+        <v>0.2960677502347535</v>
       </c>
       <c r="H26">
-        <v>0.01097832975356823</v>
+        <v>1.585107506038629</v>
       </c>
       <c r="I26">
-        <v>0.001225825939659453</v>
+        <v>0.4066822807472751</v>
       </c>
       <c r="J26">
-        <v>1.608284682102103</v>
+        <v>0.4977431786562403</v>
       </c>
       <c r="K26">
-        <v>0.001225825939659453</v>
+        <v>0.4066822807472751</v>
       </c>
       <c r="L26">
-        <v>3.612049851910613</v>
+        <v>0.3136805992314787</v>
       </c>
       <c r="M26">
-        <v>1.805139789203143</v>
+        <v>2.544650319889423</v>
       </c>
       <c r="N26">
-        <v>1.805139789203143</v>
+        <v>2.544650319889423</v>
       </c>
       <c r="O26">
-        <v>1.22312726577959</v>
+        <v>1.7951227966712</v>
       </c>
       <c r="P26">
-        <v>1.203835134781982</v>
+        <v>1.83199430684204</v>
       </c>
       <c r="Q26">
-        <v>1.203835134781982</v>
+        <v>1.83199430684204</v>
       </c>
       <c r="R26">
-        <v>0.9031828075714013</v>
+        <v>1.475666300318349</v>
       </c>
       <c r="S26">
-        <v>0.9031828075714013</v>
+        <v>1.475666300318349</v>
       </c>
       <c r="T26">
-        <v>0.8816451058556835</v>
+        <v>1.312483559242624</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.00217959071571286</v>
+        <v>0.002392685105947902</v>
       </c>
       <c r="D27">
-        <v>1.103159282324669</v>
+        <v>-0.0003878714882696759</v>
       </c>
       <c r="E27">
-        <v>-0.00217959071571286</v>
+        <v>0.002392685105947902</v>
       </c>
       <c r="F27">
-        <v>0.05923861290883356</v>
+        <v>2.946005160007666</v>
       </c>
       <c r="G27">
-        <v>0.1418032998295012</v>
+        <v>0.2609892138200792</v>
       </c>
       <c r="H27">
-        <v>-0.001725540499156195</v>
+        <v>0.0005097315444593208</v>
       </c>
       <c r="I27">
-        <v>0.05923861290883356</v>
+        <v>2.946005160007666</v>
       </c>
       <c r="J27">
-        <v>1.442672675414377</v>
+        <v>1.093400606310508</v>
       </c>
       <c r="K27">
-        <v>0.05923861290883356</v>
+        <v>2.946005160007666</v>
       </c>
       <c r="L27">
-        <v>1.103159282324669</v>
+        <v>-0.0003878714882696759</v>
       </c>
       <c r="M27">
-        <v>0.5504898458044782</v>
+        <v>0.001002406808839113</v>
       </c>
       <c r="N27">
-        <v>0.5504898458044782</v>
+        <v>0.001002406808839113</v>
       </c>
       <c r="O27">
-        <v>0.4142609971461526</v>
+        <v>0.0876646758125858</v>
       </c>
       <c r="P27">
-        <v>0.3867394348392634</v>
+        <v>0.9826699912084481</v>
       </c>
       <c r="Q27">
-        <v>0.3867394348392634</v>
+        <v>0.9826699912084482</v>
       </c>
       <c r="R27">
-        <v>0.3048642293566559</v>
+        <v>1.473503783408253</v>
       </c>
       <c r="S27">
-        <v>0.3048642293566559</v>
+        <v>1.473503783408253</v>
       </c>
       <c r="T27">
-        <v>0.4571614565437519</v>
+        <v>0.7171515875500653</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.0291482007193027</v>
+        <v>-0.001770273504326211</v>
       </c>
       <c r="D28">
-        <v>0.5890834267922467</v>
+        <v>3.612049851910613</v>
       </c>
       <c r="E28">
-        <v>0.0291482007193027</v>
+        <v>-0.001770273504326211</v>
       </c>
       <c r="F28">
-        <v>0.4830043610260045</v>
+        <v>0.001225825939659453</v>
       </c>
       <c r="G28">
-        <v>0.7202774920624645</v>
+        <v>0.05910221893248336</v>
       </c>
       <c r="H28">
-        <v>0.004956016528977478</v>
+        <v>0.01097832975356823</v>
       </c>
       <c r="I28">
-        <v>0.4830043610260045</v>
+        <v>0.001225825939659453</v>
       </c>
       <c r="J28">
-        <v>1.178663877869634</v>
+        <v>1.608284682102103</v>
       </c>
       <c r="K28">
-        <v>0.4830043610260045</v>
+        <v>0.001225825939659453</v>
       </c>
       <c r="L28">
-        <v>0.5890834267922467</v>
+        <v>3.612049851910613</v>
       </c>
       <c r="M28">
-        <v>0.3091158137557747</v>
+        <v>1.805139789203143</v>
       </c>
       <c r="N28">
-        <v>0.3091158137557747</v>
+        <v>1.805139789203143</v>
       </c>
       <c r="O28">
-        <v>0.4461697065246713</v>
+        <v>1.22312726577959</v>
       </c>
       <c r="P28">
-        <v>0.3670786628458513</v>
+        <v>1.203835134781982</v>
       </c>
       <c r="Q28">
-        <v>0.3670786628458513</v>
+        <v>1.203835134781982</v>
       </c>
       <c r="R28">
-        <v>0.3960600873908896</v>
+        <v>0.9031828075714013</v>
       </c>
       <c r="S28">
-        <v>0.3960600873908896</v>
+        <v>0.9031828075714013</v>
       </c>
       <c r="T28">
-        <v>0.5008555624997716</v>
+        <v>0.8816451058556835</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.00217959071571286</v>
+      </c>
+      <c r="D29">
+        <v>1.103159282324669</v>
+      </c>
+      <c r="E29">
+        <v>-0.00217959071571286</v>
+      </c>
+      <c r="F29">
+        <v>0.05923861290883356</v>
+      </c>
+      <c r="G29">
+        <v>0.1418032998295012</v>
+      </c>
+      <c r="H29">
+        <v>-0.001725540499156195</v>
+      </c>
+      <c r="I29">
+        <v>0.05923861290883356</v>
+      </c>
+      <c r="J29">
+        <v>1.442672675414377</v>
+      </c>
+      <c r="K29">
+        <v>0.05923861290883356</v>
+      </c>
+      <c r="L29">
+        <v>1.103159282324669</v>
+      </c>
+      <c r="M29">
+        <v>0.5504898458044782</v>
+      </c>
+      <c r="N29">
+        <v>0.5504898458044782</v>
+      </c>
+      <c r="O29">
+        <v>0.4142609971461526</v>
+      </c>
+      <c r="P29">
+        <v>0.3867394348392634</v>
+      </c>
+      <c r="Q29">
+        <v>0.3867394348392634</v>
+      </c>
+      <c r="R29">
+        <v>0.3048642293566559</v>
+      </c>
+      <c r="S29">
+        <v>0.3048642293566559</v>
+      </c>
+      <c r="T29">
+        <v>0.4571614565437519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.0291482007193027</v>
+      </c>
+      <c r="D30">
+        <v>0.5890834267922467</v>
+      </c>
+      <c r="E30">
+        <v>0.0291482007193027</v>
+      </c>
+      <c r="F30">
+        <v>0.4830043610260045</v>
+      </c>
+      <c r="G30">
+        <v>0.7202774920624645</v>
+      </c>
+      <c r="H30">
+        <v>0.004956016528977478</v>
+      </c>
+      <c r="I30">
+        <v>0.4830043610260045</v>
+      </c>
+      <c r="J30">
+        <v>1.178663877869634</v>
+      </c>
+      <c r="K30">
+        <v>0.4830043610260045</v>
+      </c>
+      <c r="L30">
+        <v>0.5890834267922467</v>
+      </c>
+      <c r="M30">
+        <v>0.3091158137557747</v>
+      </c>
+      <c r="N30">
+        <v>0.3091158137557747</v>
+      </c>
+      <c r="O30">
+        <v>0.4461697065246713</v>
+      </c>
+      <c r="P30">
+        <v>0.3670786628458513</v>
+      </c>
+      <c r="Q30">
+        <v>0.3670786628458513</v>
+      </c>
+      <c r="R30">
+        <v>0.3960600873908896</v>
+      </c>
+      <c r="S30">
+        <v>0.3960600873908896</v>
+      </c>
+      <c r="T30">
+        <v>0.5008555624997716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.05814132290523029</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.265446506192127</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.05814132290523029</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.086458161215768</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.617674642132961</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.003407190930690019</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.086458161215768</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.128740749018723</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.086458161215768</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.265446506192127</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.1617939145486786</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.1617939145486786</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.6470874904101062</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.4700153301043752</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.4700153301043752</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.6241260378822234</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.6241260378822234</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.5266447620659167</v>
       </c>
     </row>
